--- a/Sonstiges/MFEM-Beispiel-GoKit.xlsx
+++ b/Sonstiges/MFEM-Beispiel-GoKit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -131,9 +131,6 @@
 (0.0 - 1.0)</t>
   </si>
   <si>
-    <t>Progressivität</t>
-  </si>
-  <si>
     <t>Aktive Community</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>Ist der Service leichtgewichtig?</t>
   </si>
   <si>
-    <t>Messung Heap Size: Kleiner 100MB</t>
-  </si>
-  <si>
     <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Wie lange wird ein Support gewährleistet?</t>
   </si>
   <si>
-    <t>Länge vom Support in Jahren pro Major Release</t>
-  </si>
-  <si>
     <t>Gibt es vom Hersteller Support</t>
   </si>
   <si>
@@ -267,12 +258,6 @@
     <t>Stehen große Firmen dahinter?</t>
   </si>
   <si>
-    <t>Anzahl Firmen über 1000 MA</t>
-  </si>
-  <si>
-    <t>Anzahl Firmen über 100 MA</t>
-  </si>
-  <si>
     <t>Wie viele Benutzer gibt es</t>
   </si>
   <si>
@@ -285,16 +270,73 @@
     <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
   </si>
   <si>
-    <t>Bleibt der Service bei Lastspitzen verfügbar?</t>
-  </si>
-  <si>
-    <t>Druchsatz bei 50.000 Anfragen mit 500 echt parallelen Clients in Anfragen/Sek</t>
-  </si>
-  <si>
-    <t>Stabile und kurze Reakionszeit</t>
-  </si>
-  <si>
-    <t>Fehlerrate bei 50.000 Anfragen mit 500 echt parallelen Clients in %</t>
+    <t>Kurze Reakionszeit</t>
+  </si>
+  <si>
+    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
+  </si>
+  <si>
+    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
+  </si>
+  <si>
+    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>Länge vom Support in Monaten pro Major Release</t>
+  </si>
+  <si>
+    <t>Firmen über 1000 MA</t>
+  </si>
+  <si>
+    <t>Firmen über 100 MA</t>
+  </si>
+  <si>
+    <t>31MB</t>
+  </si>
+  <si>
+    <t>27.625,2 Anfragen/sec</t>
+  </si>
+  <si>
+    <t>9ms</t>
+  </si>
+  <si>
+    <t>unklar</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Noch nicht v1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Zukunftssicherheit</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>Verfügbar</t>
+  </si>
+  <si>
+    <t>Sehr gut</t>
+  </si>
+  <si>
+    <t>manuell</t>
+  </si>
+  <si>
+    <t>enthalten</t>
+  </si>
+  <si>
+    <t>schwer umsetzbar</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>Einfach</t>
   </si>
 </sst>
 </file>
@@ -685,7 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -708,36 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -748,9 +760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -813,17 +822,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -963,7 +1014,7 @@
                   <c:v>Wartbarkeit</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Progressivität</c:v>
+                  <c:v>Zukunftssicherheit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -975,22 +1026,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0.568181818181818</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.558571428571429</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.285714285714286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.104166666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,11 +1055,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1758300448"/>
-        <c:axId val="1857364624"/>
+        <c:axId val="2063944416"/>
+        <c:axId val="2063946048"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1758300448"/>
+        <c:axId val="2063944416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1102,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857364624"/>
+        <c:crossAx val="2063946048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1857364624"/>
+        <c:axId val="2063946048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1110,7 +1161,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758300448"/>
+        <c:crossAx val="2063944416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2002,21 +2053,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="31" style="55" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="31" style="42" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
@@ -2025,54 +2076,54 @@
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="23">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="23">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="39">
+        <v>1</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="50">
-        <v>1</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="37">
+      <c r="H2" s="26">
         <v>0.5</v>
       </c>
       <c r="I2" s="1">
@@ -2081,415 +2132,425 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="29">
+      <c r="A3" s="49"/>
+      <c r="B3" s="46">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="23">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="39">
+        <v>2</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="50">
-        <v>2</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="37">
+      <c r="H3" s="26">
         <v>0.5</v>
       </c>
       <c r="I3" s="2">
         <f>IFERROR(VLOOKUP($F3,Evaluation!C:F,4,FALSE),0)*H3</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="35">
+      <c r="A4" s="53"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="24">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="50">
+      <c r="E4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="39">
         <v>3</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="38">
+      <c r="G4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="27">
         <v>0.25</v>
       </c>
       <c r="I4" s="2">
         <f>IFERROR(VLOOKUP($F4,Evaluation!C:F,4,FALSE),0)*H4</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="29">
+      <c r="A5" s="53"/>
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="23">
         <v>4</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="50">
+      <c r="E5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="39">
         <v>4</v>
       </c>
-      <c r="G5" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="38">
+      <c r="G5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="27">
         <v>1</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(VLOOKUP($F5,Evaluation!C:F,4,FALSE),0)*H5</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34">
+      <c r="A6" s="53"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="23">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="39">
+        <v>5</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="50">
-        <v>5</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="38">
+      <c r="H6" s="27">
         <v>0.25</v>
       </c>
       <c r="I6" s="2">
         <f>IFERROR(VLOOKUP($F6,Evaluation!C:F,4,FALSE),0)*H6</f>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="35">
+      <c r="A7" s="53"/>
+      <c r="B7" s="24">
         <v>4</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="24">
         <v>6</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="50">
+      <c r="E7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="39">
         <v>6</v>
       </c>
-      <c r="G7" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="38">
+      <c r="G7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="27">
         <v>0.25</v>
       </c>
       <c r="I7" s="2">
         <f>IFERROR(VLOOKUP($F7,Evaluation!C:F,4,FALSE),0)*H7</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="18">
         <v>5</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="34">
+      <c r="C8" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="23">
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="50">
+      <c r="E8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="39">
         <v>7</v>
       </c>
-      <c r="G8" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="38">
+      <c r="G8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="27">
         <v>0.5</v>
       </c>
       <c r="I8" s="2">
         <f>IFERROR(VLOOKUP($F8,Evaluation!C:F,4,FALSE),0)*H8</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29">
+      <c r="A9" s="48"/>
+      <c r="B9" s="23">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="20">
         <v>8</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="50">
+      <c r="E9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="39">
         <v>8</v>
       </c>
-      <c r="G9" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="38">
+      <c r="G9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="27">
         <v>0.5</v>
       </c>
       <c r="I9" s="2">
         <f>IFERROR(VLOOKUP($F9,Evaluation!C:F,4,FALSE),0)*H9</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="34">
-        <v>6</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="50">
+      <c r="A10" s="49"/>
+      <c r="B10" s="24">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="24">
         <v>9</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="38">
-        <v>0.5</v>
+      <c r="E10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="39">
+        <v>9</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.25</v>
       </c>
       <c r="I10" s="2">
         <f>IFERROR(VLOOKUP($F10,Evaluation!C:F,4,FALSE),0)*H10</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="35">
-        <v>7</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="35">
-        <v>9</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="A11" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="46">
+        <v>8</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="24">
+        <v>10</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="39">
         <v>10</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0.25</v>
+      <c r="G11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <f>IFERROR(VLOOKUP($F11,Evaluation!C:F,4,FALSE),0)*H11</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="29">
-        <v>8</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="35">
-        <v>10</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="23">
+        <v>11</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="39">
+        <v>11</v>
+      </c>
+      <c r="G12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="50">
-        <v>11</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="38">
-        <v>1</v>
+      <c r="H12" s="27">
+        <v>0.25</v>
       </c>
       <c r="I12" s="2">
         <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34">
-        <v>11</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46">
+        <v>9</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="46">
+        <v>12</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="39">
+        <v>12</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="50">
-        <v>12</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="38">
+      <c r="H13" s="27">
         <v>0.25</v>
       </c>
       <c r="I13" s="2">
         <f>IFERROR(VLOOKUP($F13,Evaluation!C:F,4,FALSE),0)*H13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="29">
-        <v>9</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="29">
-        <v>12</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="50">
+      <c r="A14" s="48"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="39">
         <v>13</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="38">
+      <c r="G14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="27">
         <v>0.25</v>
       </c>
       <c r="I14" s="2">
         <f>IFERROR(VLOOKUP($F14,Evaluation!C:F,4,FALSE),0)*H14</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="50">
+      <c r="A15" s="48"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="23">
+        <v>13</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="39">
         <v>14</v>
       </c>
-      <c r="G15" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="38">
+      <c r="G15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="27">
         <v>0.25</v>
       </c>
       <c r="I15" s="2">
         <f>IFERROR(VLOOKUP($F15,Evaluation!C:F,4,FALSE),0)*H15</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="34">
-        <v>13</v>
-      </c>
-      <c r="E16" s="33" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="23">
+        <v>14</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="39">
         <v>15</v>
       </c>
-      <c r="G16" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0.25</v>
+      <c r="G16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0.5</v>
       </c>
       <c r="I16" s="2">
         <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34">
-        <v>14</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="24">
+        <v>10</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="24">
+        <v>15</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="39">
         <v>16</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="38">
-        <v>0.5</v>
+      <c r="H17" s="27">
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="35">
-        <v>10</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="35">
-        <v>15</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="50">
+      <c r="A18" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="24">
+        <v>11</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="24">
+        <v>16</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="39">
         <v>17</v>
       </c>
-      <c r="G18" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="38">
-        <v>1</v>
+      <c r="G18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="27">
+        <v>0.5</v>
       </c>
       <c r="I18" s="2">
         <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
@@ -2497,111 +2558,109 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="35">
-        <v>11</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="35">
-        <v>16</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="50">
+      <c r="A19" s="49"/>
+      <c r="B19" s="23">
+        <v>12</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="23">
+        <v>17</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="39">
         <v>18</v>
       </c>
-      <c r="G19" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="38">
-        <v>0.5</v>
+      <c r="G19" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="27">
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="34">
-        <v>12</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="34">
-        <v>17</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="50">
+      <c r="A20" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="46">
+        <v>13</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="24">
+        <v>18</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="39">
         <v>19</v>
       </c>
-      <c r="G20" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="38">
-        <v>1</v>
+      <c r="G20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0.5</v>
       </c>
       <c r="I20" s="2">
         <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="29">
-        <v>13</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="35">
-        <v>18</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="50">
+      <c r="A21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="23">
+        <v>19</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="39">
         <v>20</v>
       </c>
-      <c r="G21" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="38">
+      <c r="G21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="27">
         <v>0.5</v>
       </c>
       <c r="I21" s="2">
         <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="34">
-        <v>19</v>
-      </c>
-      <c r="E22" s="33" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="46">
+        <v>14</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="23">
+        <v>20</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="39">
         <v>21</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="38">
-        <v>0.5</v>
+      <c r="G22" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="27">
+        <v>0.25</v>
       </c>
       <c r="I22" s="2">
         <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
@@ -2609,26 +2668,22 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="29">
-        <v>14</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="23">
+        <v>21</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="34">
-        <v>20</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="F23" s="39">
+        <v>22</v>
+      </c>
+      <c r="G23" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="50">
-        <v>22</v>
-      </c>
-      <c r="G23" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="38">
+      <c r="H23" s="27">
         <v>0.5</v>
       </c>
       <c r="I23" s="2">
@@ -2637,23 +2692,29 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="34">
-        <v>21</v>
-      </c>
-      <c r="E24" s="33" t="s">
+      <c r="A24" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="46">
+        <v>15</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="24">
+        <v>22</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="39">
+        <v>23</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="50">
-        <v>23</v>
-      </c>
-      <c r="G24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="38">
-        <v>0.25</v>
+      <c r="H24" s="27">
+        <v>0.5</v>
       </c>
       <c r="I24" s="2">
         <f>IFERROR(VLOOKUP($F24,Evaluation!C:F,4,FALSE),0)*H24</f>
@@ -2661,29 +2722,23 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="29">
-        <v>15</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="35">
-        <v>22</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="50">
+      <c r="A25" s="48"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="46">
+        <v>23</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="39">
         <v>24</v>
       </c>
-      <c r="G25" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="38">
-        <v>0.5</v>
+      <c r="G25" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="27">
+        <v>0.1</v>
       </c>
       <c r="I25" s="2">
         <f>IFERROR(VLOOKUP($F25,Evaluation!C:F,4,FALSE),0)*H25</f>
@@ -2691,22 +2746,18 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="29">
-        <v>23</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="50">
+      <c r="A26" s="48"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="39">
         <v>25</v>
       </c>
-      <c r="G26" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" s="38">
+      <c r="G26" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" s="27">
         <v>0.1</v>
       </c>
       <c r="I26" s="2">
@@ -2715,44 +2766,38 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="50">
+      <c r="A27" s="49"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="24">
+        <v>24</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="39">
         <v>26</v>
       </c>
-      <c r="G27" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="38">
-        <v>0.1</v>
+      <c r="G27" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="27">
+        <v>0.5</v>
       </c>
       <c r="I27" s="2">
         <f>IFERROR(VLOOKUP($F27,Evaluation!C:F,4,FALSE),0)*H27</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="35">
-        <v>24</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="50">
-        <v>27</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="38">
-        <v>0.5</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="27"/>
       <c r="I28" s="2">
         <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
         <v>0</v>
@@ -2760,13 +2805,13 @@
     </row>
     <row r="29" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="38"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
       <c r="I29" s="2">
         <f>IFERROR(VLOOKUP($F29,Evaluation!C:F,4,FALSE),0)*H29</f>
         <v>0</v>
@@ -2774,13 +2819,13 @@
     </row>
     <row r="30" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="38"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="27"/>
       <c r="I30" s="2">
         <f>IFERROR(VLOOKUP($F30,Evaluation!C:F,4,FALSE),0)*H30</f>
         <v>0</v>
@@ -2788,13 +2833,13 @@
     </row>
     <row r="31" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="27"/>
       <c r="I31" s="2">
         <f>IFERROR(VLOOKUP($F31,Evaluation!C:F,4,FALSE),0)*H31</f>
         <v>0</v>
@@ -2802,13 +2847,13 @@
     </row>
     <row r="32" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="38"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="2">
         <f>IFERROR(VLOOKUP($F32,Evaluation!C:F,4,FALSE),0)*H32</f>
         <v>0</v>
@@ -2816,13 +2861,13 @@
     </row>
     <row r="33" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="2">
         <f>IFERROR(VLOOKUP($F33,Evaluation!C:F,4,FALSE),0)*H33</f>
         <v>0</v>
@@ -2830,13 +2875,13 @@
     </row>
     <row r="34" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="27"/>
       <c r="I34" s="2">
         <f>IFERROR(VLOOKUP($F34,Evaluation!C:F,4,FALSE),0)*H34</f>
         <v>0</v>
@@ -2844,13 +2889,13 @@
     </row>
     <row r="35" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="2">
         <f>IFERROR(VLOOKUP($F35,Evaluation!C:F,4,FALSE),0)*H35</f>
         <v>0</v>
@@ -2858,13 +2903,13 @@
     </row>
     <row r="36" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="27"/>
       <c r="I36" s="2">
         <f>IFERROR(VLOOKUP($F36,Evaluation!C:F,4,FALSE),0)*H36</f>
         <v>0</v>
@@ -2872,13 +2917,13 @@
     </row>
     <row r="37" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="38"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="27"/>
       <c r="I37" s="2">
         <f>IFERROR(VLOOKUP($F37,Evaluation!C:F,4,FALSE),0)*H37</f>
         <v>0</v>
@@ -2886,13 +2931,13 @@
     </row>
     <row r="38" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="38"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="27"/>
       <c r="I38" s="2">
         <f>IFERROR(VLOOKUP($F38,Evaluation!C:F,4,FALSE),0)*H38</f>
         <v>0</v>
@@ -2900,13 +2945,13 @@
     </row>
     <row r="39" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="27"/>
       <c r="I39" s="2">
         <f>IFERROR(VLOOKUP($F39,Evaluation!C:F,4,FALSE),0)*H39</f>
         <v>0</v>
@@ -2914,13 +2959,13 @@
     </row>
     <row r="40" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="38"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="2">
         <f>IFERROR(VLOOKUP($F40,Evaluation!C:F,4,FALSE),0)*H40</f>
         <v>0</v>
@@ -2928,13 +2973,13 @@
     </row>
     <row r="41" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="2">
         <f>IFERROR(VLOOKUP($F41,Evaluation!C:F,4,FALSE),0)*H41</f>
         <v>0</v>
@@ -2942,76 +2987,58 @@
     </row>
     <row r="42" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="38"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="27"/>
       <c r="I42" s="2">
         <f>IFERROR(VLOOKUP($F42,Evaluation!C:F,4,FALSE),0)*H42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="2">
+    <row r="43" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="32"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="3">
         <f>IFERROR(VLOOKUP($F43,Evaluation!C:F,4,FALSE),0)*H43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="3">
-        <f>IFERROR(VLOOKUP($F44,Evaluation!C:F,4,FALSE),0)*H44</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A21:A24"/>
+  <mergeCells count="24">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A17"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3034,7 +3061,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -3046,136 +3073,148 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="35">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="55"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="47"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8">
@@ -3185,12 +3224,16 @@
         <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -3198,12 +3241,16 @@
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="9">
         <v>6</v>
       </c>
@@ -3211,97 +3258,117 @@
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="47"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="48"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="54" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8">
@@ -3311,12 +3378,16 @@
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="9">
         <v>2</v>
       </c>
@@ -3324,12 +3395,16 @@
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="9">
         <v>3</v>
       </c>
@@ -3337,211 +3412,231 @@
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="47"/>
+      <c r="E25" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="47"/>
+      <c r="E26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="47"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="47"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="47"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="56"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="48"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>LoC</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="46"/>
+      <c r="E32" s="14">
+        <v>45</v>
+      </c>
+      <c r="F32" s="35">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Methodenaufrufe</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="47"/>
+      <c r="E33" s="15">
+        <v>13</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="47"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="47"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
         <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="47"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
         <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="47"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
         <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="47"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
         <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="47"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
         <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="8">
@@ -3551,237 +3646,271 @@
         <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="46"/>
+      <c r="E42" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="35">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="9">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Fehlerrate bei 50.000 Anfragen mit 500 echt parallelen Clients in %</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="47"/>
+        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="9">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Druchsatz bei 50.000 Anfragen mit 500 echt parallelen Clients in Anfragen/Sek</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="47"/>
+        <v>Messung Heap Size unter Last: Kleiner 100MB</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="9">
-        <v>10</v>
-      </c>
+      <c r="A45" s="58"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2" t="str">
         <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Messung Heap Size: Kleiner 100MB</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="47"/>
+        <v/>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
         <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="47"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
         <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="47"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
         <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="47"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
         <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="47"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
         <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="47"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
         <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="48"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="37"/>
     </row>
     <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="58"/>
+      <c r="B52" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="str">
         <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Länge vom Support in Jahren pro Major Release</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="46"/>
+        <v>Länge vom Support in Monaten pro Major Release</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="35">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="str">
         <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="47"/>
+      <c r="E53" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="2" t="str">
         <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="47"/>
+      <c r="E54" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="str">
         <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Anzahl Firmen über 1000 MA</v>
-      </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="47"/>
+        <v>Firmen über 1000 MA</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="str">
         <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Anzahl Firmen über 100 MA</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="47"/>
+        <v>Firmen über 100 MA</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="str">
         <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Github - Star + Watch + Fork</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="47"/>
+      <c r="E57" s="15">
+        <v>6850</v>
+      </c>
+      <c r="F57" s="36">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
         <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
         <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="47"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
         <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="47"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="56"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
         <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="48"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3803,8 +3932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3813,119 +3942,119 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="30">
         <f>SUM('QUT-GQM'!H2:H7)</f>
         <v>2.75</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="30">
         <f>SUM('QUT-GQM'!I2:I7)</f>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="D7">
         <f>IFERROR(C7/B7,0)</f>
-        <v>0</v>
+        <v>0.56818181818181823</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41">
-        <f>SUM('QUT-GQM'!H8:H11)</f>
-        <v>1.75</v>
-      </c>
-      <c r="C8" s="41">
-        <f>SUM('QUT-GQM'!I8:I11)</f>
-        <v>0</v>
+      <c r="B8" s="30">
+        <f>SUM('QUT-GQM'!H8:H10)</f>
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="30">
+        <f>SUM('QUT-GQM'!I8:I10)</f>
+        <v>1.25</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41">
-        <f>SUM('QUT-GQM'!H12:H18)</f>
+      <c r="B9" s="30">
+        <f>SUM('QUT-GQM'!H11:H17)</f>
         <v>3.5</v>
       </c>
-      <c r="C9" s="41">
-        <f>SUM('QUT-GQM'!I12:I18)</f>
-        <v>0</v>
+      <c r="C9" s="30">
+        <f>SUM('QUT-GQM'!I11:I17)</f>
+        <v>1.9550000000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55857142857142861</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="41">
-        <f>SUM('QUT-GQM'!H19:H20)</f>
+      <c r="B10" s="30">
+        <f>SUM('QUT-GQM'!H18:H19)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="41">
-        <f>SUM('QUT-GQM'!I19:I20)</f>
-        <v>0</v>
+      <c r="C10" s="30">
+        <f>SUM('QUT-GQM'!I18:I19)</f>
+        <v>0.5</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41">
-        <f>SUM('QUT-GQM'!H21:H24)</f>
+      <c r="B11" s="30">
+        <f>SUM('QUT-GQM'!H20:H23)</f>
         <v>1.75</v>
       </c>
-      <c r="C11" s="41">
-        <f>SUM('QUT-GQM'!I21:I24)</f>
-        <v>0</v>
+      <c r="C11" s="30">
+        <f>SUM('QUT-GQM'!I20:I23)</f>
+        <v>0.5</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="41">
-        <f>SUM('QUT-GQM'!H25:H28)</f>
+        <v>93</v>
+      </c>
+      <c r="B12" s="30">
+        <f>SUM('QUT-GQM'!H24:H27)</f>
         <v>1.2</v>
       </c>
-      <c r="C12" s="41">
-        <f>SUM('QUT-GQM'!I25:I28)</f>
-        <v>0</v>
+      <c r="C12" s="30">
+        <f>SUM('QUT-GQM'!I24:I27)</f>
+        <v>0.125</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/Sonstiges/MFEM-Beispiel-GoKit.xlsx
+++ b/Sonstiges/MFEM-Beispiel-GoKit.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Die Schnittstelle ist nach dem HATEOAS Modell aufgebaut</t>
-  </si>
-  <si>
-    <t>Daten können im XML oder JSON Format übertragen werden</t>
-  </si>
-  <si>
-    <t>Fehler bei Inter-Service Kommunikation werden erkannt und behandelt</t>
   </si>
   <si>
     <t>Performance</t>
@@ -146,197 +140,279 @@
     <t>Ergebnis mit Gewichtung</t>
   </si>
   <si>
-    <t>Gewichtung 
+    <t>Kategorien</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Ist %</t>
+  </si>
+  <si>
+    <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
+  </si>
+  <si>
+    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
+  </si>
+  <si>
+    <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
+  </si>
+  <si>
+    <t>Kann das Framework Daten im JSON Format de-/serialisieren</t>
+  </si>
+  <si>
+    <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
+  </si>
+  <si>
+    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
+  </si>
+  <si>
+    <t>Ist der Service leichtgewichtig?</t>
+  </si>
+  <si>
+    <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
+  </si>
+  <si>
+    <t>Werden Dependencies automatisch geladen?</t>
+  </si>
+  <si>
+    <t>Kann eine Endpunkt einfach erstellt werden?</t>
+  </si>
+  <si>
+    <t>Lässt sich das Framework einfach und schnell installieren?</t>
+  </si>
+  <si>
+    <t>Ist die Entwicklung schnell zu erlernen</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine umfangreiche Dokumentation mit Beispielen</t>
+  </si>
+  <si>
+    <t>Lassen sich über das Framework Events loggen</t>
+  </si>
+  <si>
+    <t>Lässt sich die API mittels JWT absichern?</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine Schnittstelle für Logging</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine Schnittstelle für Metriken</t>
+  </si>
+  <si>
+    <t>Framework wird supported</t>
+  </si>
+  <si>
+    <t>Wie lange wird ein Support gewährleistet?</t>
+  </si>
+  <si>
+    <t>Gibt es vom Hersteller Support</t>
+  </si>
+  <si>
+    <t>Kommerzieller Support vorhanden (j/n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werden Regelmäßig Fehler behoben?</t>
+  </si>
+  <si>
+    <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
+  </si>
+  <si>
+    <t>Stehen große Firmen dahinter?</t>
+  </si>
+  <si>
+    <t>Wie viele Benutzer gibt es</t>
+  </si>
+  <si>
+    <t>Github - Star + Watch + Fork</t>
+  </si>
+  <si>
+    <t>Ist der Overhead vom Framework minimal?</t>
+  </si>
+  <si>
+    <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
+  </si>
+  <si>
+    <t>Kurze Reakionszeit</t>
+  </si>
+  <si>
+    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
+  </si>
+  <si>
+    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
+  </si>
+  <si>
+    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>Länge vom Support in Monaten pro Major Release</t>
+  </si>
+  <si>
+    <t>Firmen über 1000 MA</t>
+  </si>
+  <si>
+    <t>Firmen über 100 MA</t>
+  </si>
+  <si>
+    <t>31MB</t>
+  </si>
+  <si>
+    <t>27.625,2 Anfragen/sec</t>
+  </si>
+  <si>
+    <t>9ms</t>
+  </si>
+  <si>
+    <t>unklar</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Noch nicht v1</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Zukunftssicherheit</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>Verfügbar</t>
+  </si>
+  <si>
+    <t>Sehr gut</t>
+  </si>
+  <si>
+    <t>manuell</t>
+  </si>
+  <si>
+    <t>enthalten</t>
+  </si>
+  <si>
+    <t>schwer umsetzbar</t>
+  </si>
+  <si>
+    <t>gut</t>
+  </si>
+  <si>
+    <t>Einfach</t>
+  </si>
+  <si>
+    <t>Priorität</t>
+  </si>
+  <si>
+    <t>Gewichtung Metrik
 (A=100%, B=50%, C=25%)</t>
   </si>
   <si>
-    <t>Kategorien</t>
-  </si>
-  <si>
-    <t>Soll</t>
-  </si>
-  <si>
-    <t>Ist</t>
-  </si>
-  <si>
-    <t>Ist %</t>
-  </si>
-  <si>
-    <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
-  </si>
-  <si>
-    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (automatisch, manuell, nicht möglich)</t>
-  </si>
-  <si>
-    <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
-  </si>
-  <si>
-    <t>Kann das Framework Daten im JSON Format de-/serialisieren</t>
-  </si>
-  <si>
-    <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
-  </si>
-  <si>
-    <t>Ordinalskala(automatisch, manuell, nicht möglich)</t>
-  </si>
-  <si>
-    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
-  </si>
-  <si>
-    <t>Ist der Service leichtgewichtig?</t>
-  </si>
-  <si>
-    <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
-  </si>
-  <si>
-    <t>Werden Dependencies automatisch geladen?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
-  </si>
-  <si>
-    <t>LoC</t>
-  </si>
-  <si>
-    <t>Methodenaufrufe</t>
-  </si>
-  <si>
-    <t>Kann eine Endpunkt einfach erstellt werden?</t>
-  </si>
-  <si>
-    <t>Lässt sich das Framework einfach und schnell installieren?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (sehr gut, gut, schlecht)</t>
-  </si>
-  <si>
-    <t>Ist die Entwicklung schnell zu erlernen</t>
-  </si>
-  <si>
-    <t>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</t>
-  </si>
-  <si>
-    <t>Bietet das Framework eine umfangreiche Dokumentation mit Beispielen</t>
-  </si>
-  <si>
-    <t>Lassen sich über das Framework Events loggen</t>
-  </si>
-  <si>
-    <t>Lässt sich die API mittels JWT absichern?</t>
-  </si>
-  <si>
-    <t>Bietet das Framework eine Schnittstelle für Logging</t>
-  </si>
-  <si>
-    <t>Bietet das Framework eine Schnittstelle für Metriken</t>
-  </si>
-  <si>
-    <t>Framework wird supported</t>
-  </si>
-  <si>
-    <t>Wie lange wird ein Support gewährleistet?</t>
-  </si>
-  <si>
-    <t>Gibt es vom Hersteller Support</t>
-  </si>
-  <si>
-    <t>Kommerzieller Support vorhanden (j/n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Werden Regelmäßig Fehler behoben?</t>
-  </si>
-  <si>
-    <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
-  </si>
-  <si>
-    <t>Stehen große Firmen dahinter?</t>
-  </si>
-  <si>
-    <t>Wie viele Benutzer gibt es</t>
-  </si>
-  <si>
-    <t>Github - Star + Watch + Fork</t>
-  </si>
-  <si>
-    <t>Ist der Overhead vom Framework minimal?</t>
-  </si>
-  <si>
-    <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
-  </si>
-  <si>
-    <t>Kurze Reakionszeit</t>
-  </si>
-  <si>
-    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
-  </si>
-  <si>
-    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
-  </si>
-  <si>
-    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
-  </si>
-  <si>
-    <t>Länge vom Support in Monaten pro Major Release</t>
-  </si>
-  <si>
-    <t>Firmen über 1000 MA</t>
-  </si>
-  <si>
-    <t>Firmen über 100 MA</t>
-  </si>
-  <si>
-    <t>31MB</t>
-  </si>
-  <si>
-    <t>27.625,2 Anfragen/sec</t>
-  </si>
-  <si>
-    <t>9ms</t>
-  </si>
-  <si>
-    <t>unklar</t>
-  </si>
-  <si>
-    <t>nein</t>
-  </si>
-  <si>
-    <t>Noch nicht v1</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Zukunftssicherheit</t>
-  </si>
-  <si>
-    <t>leicht umsetzbar</t>
-  </si>
-  <si>
-    <t>Verfügbar</t>
-  </si>
-  <si>
-    <t>Sehr gut</t>
-  </si>
-  <si>
-    <t>manuell</t>
-  </si>
-  <si>
-    <t>enthalten</t>
-  </si>
-  <si>
-    <t>schwer umsetzbar</t>
-  </si>
-  <si>
-    <t>gut</t>
-  </si>
-  <si>
-    <t>Einfach</t>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Objekvalidierung:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Schnittstelle nach Ressourcen:
+Ordinalskala (automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Standardisierte Datenformate</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>JSON-Format:
+Ordinalskala(automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>XML-Format:
+Ordinalskala(automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Unterstützung Eureka Service Discovery</t>
+  </si>
+  <si>
+    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie ein Heartbeat senden?</t>
+  </si>
+  <si>
+    <t>Discovery An- und Abmeldung:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Kann das Framework automatisch Instanzen eines bestimmten Services an der Discovery abfragen und für die Anfrage nutzen?</t>
+  </si>
+  <si>
+    <t>Instanzen an Discovery erfragen:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Verhinderung kaskadischer Fehler</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Circuit-Breaker-Pattern:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Lassen sich schnell neue Instanzen hochfahren?</t>
+  </si>
+  <si>
+    <t>Messung Startzeit</t>
+  </si>
+  <si>
+    <t>Autom. Builds:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Dependencieverwaltung:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>LoC für einen Endpunkt</t>
+  </si>
+  <si>
+    <t>Methodenaufrufe für einen Endpunkt</t>
+  </si>
+  <si>
+    <t>Installation:
+Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Entwicklung mit Framework:
+Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Dokumentation:
+Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</t>
+  </si>
+  <si>
+    <t>Logged Events:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>JWT-Auth.:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Logging:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Metriken:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +460,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -721,13 +797,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -760,18 +847,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -828,6 +903,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -840,24 +927,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -875,6 +956,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1026,22 +1122,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.568181818181818</c:v>
+                  <c:v>0.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.558571428571429</c:v>
+                  <c:v>0.582</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.285714285714286</c:v>
+                  <c:v>0.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.104166666666667</c:v>
+                  <c:v>0.075</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2063944416"/>
-        <c:axId val="2063946048"/>
+        <c:axId val="-568855600"/>
+        <c:axId val="-568853280"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2063944416"/>
+        <c:axId val="-568855600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1198,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063946048"/>
+        <c:crossAx val="-568853280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063946048"/>
+        <c:axId val="-568853280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1161,7 +1257,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2063944416"/>
+        <c:crossAx val="-568855600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2053,992 +2149,1162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="42" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="31" style="42" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="38" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="31" style="38" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="H1" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="39">
+      <c r="F2" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="35">
         <v>1</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="26">
+      <c r="H2" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="22">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1">
-        <f>IFERROR(VLOOKUP($F2,Evaluation!C:F,4,FALSE),0)*H2</f>
+      <c r="J2" s="1">
+        <f>IFERROR(VLOOKUP($G2,Evaluation!C:F,4,FALSE),0)*I2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
+    <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
       <c r="B3" s="46">
         <v>2</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="19">
         <v>2</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="39">
+      <c r="F3" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="35">
         <v>2</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
-        <f>IFERROR(VLOOKUP($F3,Evaluation!C:F,4,FALSE),0)*H3</f>
+      <c r="H3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="22">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
+      <c r="J3" s="2">
+        <f>IFERROR(VLOOKUP($G3,Evaluation!C:F,4,FALSE),0)*I3</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
       <c r="B4" s="47"/>
       <c r="C4" s="45"/>
-      <c r="D4" s="24">
+      <c r="D4" s="45"/>
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="F4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="35">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="H4" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="23">
         <v>0.25</v>
       </c>
-      <c r="I4" s="2">
-        <f>IFERROR(VLOOKUP($F4,Evaluation!C:F,4,FALSE),0)*H4</f>
+      <c r="J4" s="2">
+        <f>IFERROR(VLOOKUP($G4,Evaluation!C:F,4,FALSE),0)*I4</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
+    <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
       <c r="B5" s="46">
         <v>3</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="23">
+        <v>97</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="19">
         <v>4</v>
       </c>
-      <c r="E5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="39">
+      <c r="F5" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="35">
         <v>4</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="27">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <f>IFERROR(VLOOKUP($F5,Evaluation!C:F,4,FALSE),0)*H5</f>
+      <c r="H5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="23">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
+      <c r="J5" s="2">
+        <f>IFERROR(VLOOKUP($G5,Evaluation!C:F,4,FALSE),0)*I5</f>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="48"/>
       <c r="B6" s="47"/>
       <c r="C6" s="45"/>
-      <c r="D6" s="23">
+      <c r="D6" s="45"/>
+      <c r="E6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="F6" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="35">
+        <v>5</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="2">
+        <f>IFERROR(VLOOKUP($G6,Evaluation!C:F,4,FALSE),0)*I6</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="48"/>
+      <c r="B7" s="46">
+        <v>16</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="19">
+        <v>25</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="35">
+        <v>27</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="2">
+        <f>IFERROR(VLOOKUP($G7,Evaluation!C:F,4,FALSE),0)*I7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="19">
+        <v>26</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="35">
+        <v>28</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="2">
+        <f>IFERROR(VLOOKUP($G8,Evaluation!C:F,4,FALSE),0)*I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="20">
+        <v>4</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="20">
+        <v>6</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="35">
+        <v>6</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="2">
+        <f>IFERROR(VLOOKUP($G9,Evaluation!C:F,4,FALSE),0)*I9</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="46">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="35">
+        <v>7</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="2">
+        <f>IFERROR(VLOOKUP($G10,Evaluation!C:F,4,FALSE),0)*I10</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="62">
+        <v>27</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="35">
+        <v>29</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="2">
+        <f>IFERROR(VLOOKUP($G11,Evaluation!C:F,4,FALSE),0)*I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="49"/>
+      <c r="B12" s="19">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="41">
+        <v>8</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="35">
+        <v>8</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="2">
+        <f>IFERROR(VLOOKUP($G12,Evaluation!C:F,4,FALSE),0)*I12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="20">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="20">
+        <v>9</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="35">
+        <v>9</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="2">
+        <f>IFERROR(VLOOKUP($G13,Evaluation!C:F,4,FALSE),0)*I13</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="46">
+        <v>8</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="20">
+        <v>10</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="35">
+        <v>10</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="2">
+        <f>IFERROR(VLOOKUP($G14,Evaluation!C:F,4,FALSE),0)*I14</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="49"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="19">
+        <v>11</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="35">
+        <v>11</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="2">
+        <f>IFERROR(VLOOKUP($G15,Evaluation!C:F,4,FALSE),0)*I15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="46">
+        <v>9</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="46">
+        <v>12</v>
+      </c>
+      <c r="F16" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="39">
-        <v>5</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="G16" s="35">
+        <v>12</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="2">
+        <f>IFERROR(VLOOKUP($G16,Evaluation!C:F,4,FALSE),0)*I16</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="35">
+        <v>13</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="2">
+        <f>IFERROR(VLOOKUP($G17,Evaluation!C:F,4,FALSE),0)*I17</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="19">
+        <v>13</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="27">
+      <c r="G18" s="35">
+        <v>14</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="2">
+        <f>IFERROR(VLOOKUP($G18,Evaluation!C:F,4,FALSE),0)*I18</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="19">
+        <v>14</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="35">
+        <v>15</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="2">
+        <f>IFERROR(VLOOKUP($G19,Evaluation!C:F,4,FALSE),0)*I19</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="43"/>
+      <c r="B20" s="20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="20">
+        <v>15</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="35">
+        <v>16</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I20" s="23">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <f>IFERROR(VLOOKUP($G20,Evaluation!C:F,4,FALSE),0)*I20</f>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="20">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="20">
+        <v>16</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="35">
+        <v>17</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="2">
+        <f>IFERROR(VLOOKUP($G21,Evaluation!C:F,4,FALSE),0)*I21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+      <c r="B22" s="19">
+        <v>12</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="19">
+        <v>17</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="35">
+        <v>18</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="23">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <f>IFERROR(VLOOKUP($G22,Evaluation!C:F,4,FALSE),0)*I22</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="46">
+        <v>13</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="20">
+        <v>18</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="35">
+        <v>19</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="23">
         <v>0.25</v>
       </c>
-      <c r="I6" s="2">
-        <f>IFERROR(VLOOKUP($F6,Evaluation!C:F,4,FALSE),0)*H6</f>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="24">
-        <v>4</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="24">
-        <v>6</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="39">
-        <v>6</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="27">
+      <c r="J23" s="2">
+        <f>IFERROR(VLOOKUP($G23,Evaluation!C:F,4,FALSE),0)*I23</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="49"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="19">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="35">
+        <v>20</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="23">
         <v>0.25</v>
       </c>
-      <c r="I7" s="2">
-        <f>IFERROR(VLOOKUP($F7,Evaluation!C:F,4,FALSE),0)*H7</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="18">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="23">
-        <v>7</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="39">
-        <v>7</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="2">
-        <f>IFERROR(VLOOKUP($F8,Evaluation!C:F,4,FALSE),0)*H8</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="23">
-        <v>6</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="J24" s="2">
+        <f>IFERROR(VLOOKUP($G24,Evaluation!C:F,4,FALSE),0)*I24</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="46">
+        <v>14</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="19">
+        <v>20</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="35">
+        <v>21</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="2">
+        <f>IFERROR(VLOOKUP($G25,Evaluation!C:F,4,FALSE),0)*I25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="43"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="19">
+        <v>21</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="35">
+        <v>22</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="2">
+        <f>IFERROR(VLOOKUP($G26,Evaluation!C:F,4,FALSE),0)*I26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="46">
         <v>15</v>
       </c>
-      <c r="D9" s="20">
-        <v>8</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="39">
-        <v>8</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="2">
-        <f>IFERROR(VLOOKUP($F9,Evaluation!C:F,4,FALSE),0)*H9</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="24">
-        <v>7</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="24">
-        <v>9</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="39">
-        <v>9</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I10" s="2">
-        <f>IFERROR(VLOOKUP($F10,Evaluation!C:F,4,FALSE),0)*H10</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="46">
-        <v>8</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="24">
-        <v>10</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="39">
-        <v>10</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="27">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <f>IFERROR(VLOOKUP($F11,Evaluation!C:F,4,FALSE),0)*H11</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="23">
-        <v>11</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="39">
-        <v>11</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I12" s="2">
-        <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="46">
-        <v>9</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="46">
-        <v>12</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="39">
-        <v>12</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I13" s="2">
-        <f>IFERROR(VLOOKUP($F13,Evaluation!C:F,4,FALSE),0)*H13</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="39">
-        <v>13</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I14" s="2">
-        <f>IFERROR(VLOOKUP($F14,Evaluation!C:F,4,FALSE),0)*H14</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="23">
-        <v>13</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="39">
-        <v>14</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I15" s="2">
-        <f>IFERROR(VLOOKUP($F15,Evaluation!C:F,4,FALSE),0)*H15</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="23">
-        <v>14</v>
-      </c>
-      <c r="E16" s="22" t="s">
+      <c r="C27" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="20">
+        <v>22</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="39">
-        <v>15</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="2">
-        <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="24">
-        <v>10</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="24">
-        <v>15</v>
-      </c>
-      <c r="E17" s="22" t="s">
+      <c r="G27" s="35">
+        <v>23</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J27" s="2">
+        <f>IFERROR(VLOOKUP($G27,Evaluation!C:F,4,FALSE),0)*I27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="46">
+        <v>23</v>
+      </c>
+      <c r="F28" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="39">
-        <v>16</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="27">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="24">
-        <v>11</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="24">
-        <v>16</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="G28" s="35">
+        <v>24</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="2">
+        <f>IFERROR(VLOOKUP($G28,Evaluation!C:F,4,FALSE),0)*I28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="35">
+        <v>25</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I29" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="2">
+        <f>IFERROR(VLOOKUP($G29,Evaluation!C:F,4,FALSE),0)*I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="43"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="20">
+        <v>24</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="39">
-        <v>17</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I18" s="2">
-        <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
+      <c r="G30" s="35">
+        <v>26</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J30" s="2">
+        <f>IFERROR(VLOOKUP($G30,Evaluation!C:F,4,FALSE),0)*I30</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="2">
+        <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="23">
-        <v>12</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="23">
-        <v>17</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="39">
-        <v>18</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="27">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="46">
-        <v>13</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="24">
-        <v>18</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="39">
-        <v>19</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I20" s="2">
-        <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="23">
-        <v>19</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="39">
-        <v>20</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I21" s="2">
-        <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="46">
-        <v>14</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="23">
-        <v>20</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="39">
-        <v>21</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="27">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="2">
-        <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
+    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="2">
+        <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="23">
-        <v>21</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="39">
-        <v>22</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="2">
-        <f>IFERROR(VLOOKUP($F23,Evaluation!C:F,4,FALSE),0)*H23</f>
+    <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="2">
+        <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="46">
-        <v>15</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="24">
-        <v>22</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="39">
-        <v>23</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="2">
-        <f>IFERROR(VLOOKUP($F24,Evaluation!C:F,4,FALSE),0)*H24</f>
+    <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="2">
+        <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="46">
-        <v>23</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="39">
-        <v>24</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="I25" s="2">
-        <f>IFERROR(VLOOKUP($F25,Evaluation!C:F,4,FALSE),0)*H25</f>
+    <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="2">
+        <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="39">
-        <v>25</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="I26" s="2">
-        <f>IFERROR(VLOOKUP($F26,Evaluation!C:F,4,FALSE),0)*H26</f>
+    <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="2">
+        <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="24">
-        <v>24</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="39">
-        <v>26</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="2">
-        <f>IFERROR(VLOOKUP($F27,Evaluation!C:F,4,FALSE),0)*H27</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="2">
-        <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
+    <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="2">
+        <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="2">
-        <f>IFERROR(VLOOKUP($F29,Evaluation!C:F,4,FALSE),0)*H29</f>
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="2">
+        <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="2">
-        <f>IFERROR(VLOOKUP($F30,Evaluation!C:F,4,FALSE),0)*H30</f>
+    <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="2">
+        <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="2">
-        <f>IFERROR(VLOOKUP($F31,Evaluation!C:F,4,FALSE),0)*H31</f>
+    <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="2">
+        <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="2">
-        <f>IFERROR(VLOOKUP($F32,Evaluation!C:F,4,FALSE),0)*H32</f>
+    <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="2">
+        <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="2">
-        <f>IFERROR(VLOOKUP($F33,Evaluation!C:F,4,FALSE),0)*H33</f>
+    <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="2">
+        <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="2">
-        <f>IFERROR(VLOOKUP($F34,Evaluation!C:F,4,FALSE),0)*H34</f>
+    <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="2">
+        <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="2">
-        <f>IFERROR(VLOOKUP($F35,Evaluation!C:F,4,FALSE),0)*H35</f>
+    <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="2">
+        <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="2">
-        <f>IFERROR(VLOOKUP($F36,Evaluation!C:F,4,FALSE),0)*H36</f>
+    <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="2">
+        <f>IFERROR(VLOOKUP($G45,Evaluation!C:F,4,FALSE),0)*I45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="2">
-        <f>IFERROR(VLOOKUP($F37,Evaluation!C:F,4,FALSE),0)*H37</f>
+    <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="3">
+        <f>IFERROR(VLOOKUP($G46,Evaluation!C:F,4,FALSE),0)*I46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="2">
-        <f>IFERROR(VLOOKUP($F38,Evaluation!C:F,4,FALSE),0)*H38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="2">
-        <f>IFERROR(VLOOKUP($F39,Evaluation!C:F,4,FALSE),0)*H39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="2">
-        <f>IFERROR(VLOOKUP($F40,Evaluation!C:F,4,FALSE),0)*H40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="2">
-        <f>IFERROR(VLOOKUP($F41,Evaluation!C:F,4,FALSE),0)*H41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="2">
-        <f>IFERROR(VLOOKUP($F42,Evaluation!C:F,4,FALSE),0)*H42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="3">
-        <f>IFERROR(VLOOKUP($F43,Evaluation!C:F,4,FALSE),0)*H43</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
+  <mergeCells count="37">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3048,24 +3314,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>6</v>
@@ -3077,840 +3343,840 @@
         <v>5</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="35">
+        <v>83</v>
+      </c>
+      <c r="F2" s="31">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="11">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="36">
+        <v>84</v>
+      </c>
+      <c r="F3" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="9">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (sehr gut, gut, schlecht)</v>
+        <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="36">
+        <v>85</v>
+      </c>
+      <c r="F4" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="32"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E10" s="15"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E11" s="16"/>
-      <c r="F11" s="37"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8">
         <v>4</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="35">
+        <v>86</v>
+      </c>
+      <c r="F12" s="31">
         <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="36">
+        <v>86</v>
+      </c>
+      <c r="F13" s="32">
         <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="9">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="36">
+        <v>87</v>
+      </c>
+      <c r="F14" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="9">
         <v>17</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="36">
+        <v>88</v>
+      </c>
+      <c r="F15" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="9">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="36">
+        <v>83</v>
+      </c>
+      <c r="F16" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="9">
         <v>19</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="36">
+        <v>83</v>
+      </c>
+      <c r="F17" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="9">
         <v>20</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="36">
+        <v>83</v>
+      </c>
+      <c r="F18" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="36"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="56"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E21" s="16"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="52" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="35">
+        <v>88</v>
+      </c>
+      <c r="F22" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="9">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="36">
+        <v>86</v>
+      </c>
+      <c r="F23" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="9">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="36">
+        <v>86</v>
+      </c>
+      <c r="F24" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="9">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (sehr gut, gut, schlecht)</v>
+        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="36">
+        <v>89</v>
+      </c>
+      <c r="F25" s="32">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="53"/>
       <c r="C26" s="9">
         <v>16</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
+        <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="36">
+        <v>90</v>
+      </c>
+      <c r="F26" s="32">
         <v>0.33</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E27" s="15"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E28" s="15"/>
-      <c r="F28" s="36"/>
+      <c r="F28" s="32"/>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="36"/>
+      <c r="F29" s="32"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="36"/>
+      <c r="F30" s="32"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E31" s="16"/>
-      <c r="F31" s="37"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>28</v>
+      <c r="A32" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="8">
         <v>12</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>LoC</v>
+        <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>LoC für einen Endpunkt</v>
       </c>
       <c r="E32" s="14">
         <v>45</v>
       </c>
-      <c r="F32" s="35">
+      <c r="F32" s="31">
         <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="9">
         <v>13</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Methodenaufrufe</v>
+        <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Methodenaufrufe für einen Endpunkt</v>
       </c>
       <c r="E33" s="15">
         <v>13</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="32">
         <v>0.25</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="53"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E34" s="15"/>
-      <c r="F34" s="36"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="53"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="36"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="53"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E36" s="15"/>
-      <c r="F36" s="36"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="55"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E37" s="15"/>
-      <c r="F37" s="36"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="55"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="53"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E38" s="15"/>
-      <c r="F38" s="36"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="53"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E39" s="15"/>
-      <c r="F39" s="36"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="53"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E40" s="15"/>
-      <c r="F40" s="36"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E41" s="16"/>
-      <c r="F41" s="37"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="54" t="s">
-        <v>13</v>
+      <c r="A42" s="56"/>
+      <c r="B42" s="52" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="8">
         <v>7</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="35">
+        <v>77</v>
+      </c>
+      <c r="F42" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="53"/>
       <c r="C43" s="9">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="36">
+        <v>76</v>
+      </c>
+      <c r="F43" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="55"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="53"/>
       <c r="C44" s="9">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Heap Size unter Last: Kleiner 100MB</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F44" s="36">
+        <v>75</v>
+      </c>
+      <c r="F44" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="55"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="9"/>
       <c r="D45" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E45" s="15"/>
-      <c r="F45" s="36"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="55"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="53"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E46" s="15"/>
-      <c r="F46" s="36"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="55"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="53"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="36"/>
+      <c r="F47" s="32"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="55"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="53"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E48" s="15"/>
-      <c r="F48" s="36"/>
+      <c r="F48" s="32"/>
     </row>
     <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="55"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="53"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E49" s="15"/>
-      <c r="F49" s="36"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="55"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E50" s="15"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="56"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E51" s="16"/>
-      <c r="F51" s="37"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="54" t="s">
-        <v>31</v>
+      <c r="A52" s="56"/>
+      <c r="B52" s="52" t="s">
+        <v>29</v>
       </c>
       <c r="C52" s="8">
         <v>21</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="35">
+        <v>78</v>
+      </c>
+      <c r="F52" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="58"/>
-      <c r="B53" s="55"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="9">
         <v>22</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="36">
+        <v>79</v>
+      </c>
+      <c r="F53" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
-      <c r="B54" s="55"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="9">
         <v>23</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="36">
+        <v>80</v>
+      </c>
+      <c r="F54" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="58"/>
-      <c r="B55" s="55"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="53"/>
       <c r="C55" s="9">
         <v>24</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Firmen über 1000 MA</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F55" s="36">
+        <v>81</v>
+      </c>
+      <c r="F55" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="58"/>
-      <c r="B56" s="55"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="53"/>
       <c r="C56" s="9">
         <v>25</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Firmen über 100 MA</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="36">
+        <v>81</v>
+      </c>
+      <c r="F56" s="32">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="58"/>
-      <c r="B57" s="55"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="53"/>
       <c r="C57" s="9">
         <v>26</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Github - Star + Watch + Fork</v>
       </c>
       <c r="E57" s="15">
         <v>6850</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="32">
         <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="58"/>
-      <c r="B58" s="55"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E58" s="15"/>
-      <c r="F58" s="36"/>
+      <c r="F58" s="32"/>
     </row>
     <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="58"/>
-      <c r="B59" s="55"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="53"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E59" s="15"/>
-      <c r="F59" s="36"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="58"/>
-      <c r="B60" s="55"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="53"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E60" s="15"/>
-      <c r="F60" s="36"/>
+      <c r="F60" s="32"/>
     </row>
     <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59"/>
-      <c r="B61" s="56"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E61" s="16"/>
-      <c r="F61" s="37"/>
+      <c r="F61" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3932,7 +4198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3942,80 +4208,80 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="30">
-        <f>SUM('QUT-GQM'!H2:H7)</f>
-        <v>2.75</v>
-      </c>
-      <c r="C7" s="30">
-        <f>SUM('QUT-GQM'!I2:I7)</f>
-        <v>1.5625</v>
+      <c r="B7" s="26">
+        <f>SUM('QUT-GQM'!I2:I9)</f>
+        <v>3.25</v>
+      </c>
+      <c r="C7" s="26">
+        <f>SUM('QUT-GQM'!J2:J9)</f>
+        <v>1.25</v>
       </c>
       <c r="D7">
         <f>IFERROR(C7/B7,0)</f>
-        <v>0.56818181818181823</v>
+        <v>0.38461538461538464</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="30">
-        <f>SUM('QUT-GQM'!H8:H10)</f>
+        <v>11</v>
+      </c>
+      <c r="B8" s="26">
+        <f>SUM('QUT-GQM'!I10:I13)</f>
         <v>1.25</v>
       </c>
-      <c r="C8" s="30">
-        <f>SUM('QUT-GQM'!I8:I10)</f>
-        <v>1.25</v>
+      <c r="C8" s="26">
+        <f>SUM('QUT-GQM'!J10:J13)</f>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="30">
-        <f>SUM('QUT-GQM'!H11:H17)</f>
-        <v>3.5</v>
-      </c>
-      <c r="C9" s="30">
-        <f>SUM('QUT-GQM'!I11:I17)</f>
-        <v>1.9550000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="26">
+        <f>SUM('QUT-GQM'!I14:I20)</f>
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="26">
+        <f>SUM('QUT-GQM'!J14:J20)</f>
+        <v>1.4550000000000003</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.55857142857142861</v>
+        <v>0.58200000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="30">
-        <f>SUM('QUT-GQM'!H18:H19)</f>
+        <v>18</v>
+      </c>
+      <c r="B10" s="26">
+        <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="30">
-        <f>SUM('QUT-GQM'!I18:I19)</f>
+      <c r="C10" s="26">
+        <f>SUM('QUT-GQM'!J21:J22)</f>
         <v>0.5</v>
       </c>
       <c r="D10">
@@ -4025,36 +4291,36 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="30">
-        <f>SUM('QUT-GQM'!H20:H23)</f>
-        <v>1.75</v>
-      </c>
-      <c r="C11" s="30">
-        <f>SUM('QUT-GQM'!I20:I23)</f>
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="26">
+        <f>SUM('QUT-GQM'!I23:I26)</f>
+        <v>0.75</v>
+      </c>
+      <c r="C11" s="26">
+        <f>SUM('QUT-GQM'!J23:J26)</f>
+        <v>0.25</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="30">
-        <f>SUM('QUT-GQM'!H24:H27)</f>
-        <v>1.2</v>
-      </c>
-      <c r="C12" s="30">
-        <f>SUM('QUT-GQM'!I24:I27)</f>
-        <v>0.125</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="26">
+        <f>SUM('QUT-GQM'!I27:I30)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="26">
+        <f>SUM('QUT-GQM'!J27:J30)</f>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.10416666666666667</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Sonstiges/MFEM-Beispiel-GoKit.xlsx
+++ b/Sonstiges/MFEM-Beispiel-GoKit.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
     <sheet name="Evaluation" sheetId="1" r:id="rId2"/>
     <sheet name="Fitness" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -29,13 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
-  <si>
-    <t>1: Installation / Einrichtung</t>
-  </si>
-  <si>
-    <t>2: Simpler Service</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="124">
   <si>
     <t>3: Erweiterter Service</t>
   </si>
@@ -107,12 +104,6 @@
   </si>
   <si>
     <t>Qualitative Evaluation</t>
-  </si>
-  <si>
-    <t>Artefakte (z.B. Code)</t>
-  </si>
-  <si>
-    <t>Szenarios</t>
   </si>
   <si>
     <t>Evaluations Schritt</t>
@@ -221,15 +212,9 @@
     <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
   </si>
   <si>
-    <t>Stehen große Firmen dahinter?</t>
-  </si>
-  <si>
     <t>Wie viele Benutzer gibt es</t>
   </si>
   <si>
-    <t>Github - Star + Watch + Fork</t>
-  </si>
-  <si>
     <t>Ist der Overhead vom Framework minimal?</t>
   </si>
   <si>
@@ -245,18 +230,9 @@
     <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
   </si>
   <si>
-    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
-  </si>
-  <si>
     <t>Länge vom Support in Monaten pro Major Release</t>
   </si>
   <si>
-    <t>Firmen über 1000 MA</t>
-  </si>
-  <si>
-    <t>Firmen über 100 MA</t>
-  </si>
-  <si>
     <t>31MB</t>
   </si>
   <si>
@@ -273,9 +249,6 @@
   </si>
   <si>
     <t>Noch nicht v1</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Zukunftssicherheit</t>
@@ -413,6 +386,47 @@
   <si>
     <t>Metriken:
 Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>Wie stark ist das Interesse von Firmen und wie sind deren Abhängigkeiten?</t>
+  </si>
+  <si>
+    <t>Businessimpact bei Verlust des Frameworks:
+Ordinalskala(stark, mittel, schwach)</t>
+  </si>
+  <si>
+    <t>Große Firmen die auf das Framework setzen:
+Ordinalskala(viele, wenige, keine)</t>
+  </si>
+  <si>
+    <t>Github Repository : 
+Star + Watch + Fork</t>
+  </si>
+  <si>
+    <t>Messgruppen</t>
+  </si>
+  <si>
+    <t>1: Installation / 
+Einrichtung</t>
+  </si>
+  <si>
+    <t>2: Einfacher Service</t>
+  </si>
+  <si>
+    <t>Artefakte 
+(z.B. Code)</t>
+  </si>
+  <si>
+    <t>schwach</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>18,4ms</t>
   </si>
 </sst>
 </file>
@@ -460,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -652,19 +666,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -808,23 +809,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,13 +855,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -870,11 +884,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -909,11 +920,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -921,57 +941,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1009,7 +1042,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1022,8 +1055,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Framework Qualitätsfitness</a:t>
+              <a:rPr lang="de-DE" sz="1800"/>
+              <a:t>Go-Kit Framework Qualitätsfitness</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1042,7 +1075,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1125,7 +1158,7 @@
                   <c:v>0.384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.582</c:v>
@@ -1151,11 +1184,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-568855600"/>
-        <c:axId val="-568853280"/>
+        <c:axId val="744004208"/>
+        <c:axId val="744188528"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-568855600"/>
+        <c:axId val="744004208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1216,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1198,7 +1231,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-568853280"/>
+        <c:crossAx val="744188528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1206,7 +1239,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-568853280"/>
+        <c:axId val="744188528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1227,6 +1260,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1257,7 +1291,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-568855600"/>
+        <c:crossAx val="744004208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1303,6 +1337,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1886,6 +1921,193 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.0419</cdr:x>
+      <cdr:y>0.83152</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.45112</cdr:x>
+      <cdr:y>0.95725</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="381000" y="6299200"/>
+          <a:ext cx="3721100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Erfüllungsgrad (Y-Achse):</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>1.0 :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>  Alle Anforderungen voll erfüllt</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>0.0 :  Keine Anforderung erfüllt</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="QUT-GQM"/>
+      <sheetName val="Evaluation"/>
+      <sheetName val="Fitness"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Funktionalität</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Performance</v>
+          </cell>
+          <cell r="D8">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Benutzbarkeit</v>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Sicherheit</v>
+          </cell>
+          <cell r="D10">
+            <v>0.91666666666666663</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Wartbarkeit</v>
+          </cell>
+          <cell r="D11">
+            <v>0.91666666666666663</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Zukunftssicherheit</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
@@ -2151,82 +2373,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="38" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="31" style="38" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="36" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8" style="32" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="16" customWidth="1"/>
+    <col min="8" max="8" width="31" style="32" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="D2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="19">
+      <c r="F2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="35">
-        <v>1</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="22">
+      <c r="H2" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="17">
         <v>0.5</v>
       </c>
       <c r="J2" s="1">
@@ -2235,29 +2457,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="46">
+      <c r="A3" s="50"/>
+      <c r="B3" s="44">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="C3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="35">
+      <c r="F3" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="29">
         <v>2</v>
       </c>
-      <c r="H3" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="22">
+      <c r="H3" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="17">
         <v>0.25</v>
       </c>
       <c r="J3" s="2">
@@ -2266,23 +2488,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="20">
+      <c r="A4" s="51"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="35">
+      <c r="F4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="29">
         <v>3</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="23">
+      <c r="H4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="18">
         <v>0.25</v>
       </c>
       <c r="J4" s="2">
@@ -2291,29 +2513,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="46">
+      <c r="A5" s="51"/>
+      <c r="B5" s="44">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="C5" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="35">
+      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="29">
         <v>4</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="H5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="18">
         <v>0.75</v>
       </c>
       <c r="J5" s="2">
@@ -2322,23 +2544,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="19">
+      <c r="A6" s="51"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="35">
+      <c r="F6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="29">
         <v>5</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="23">
+      <c r="H6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="18">
         <v>0.25</v>
       </c>
       <c r="J6" s="2">
@@ -2347,29 +2569,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="46">
+      <c r="A7" s="51"/>
+      <c r="B7" s="44">
         <v>16</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="C7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="14">
         <v>25</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="35">
+      <c r="F7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="29">
         <v>27</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="23">
+      <c r="H7" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="18">
         <v>0.5</v>
       </c>
       <c r="J7" s="2">
@@ -2378,23 +2600,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="19">
+      <c r="A8" s="51"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="14">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="35">
+      <c r="F8" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="29">
         <v>28</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="23">
+      <c r="H8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="18">
         <v>0.5</v>
       </c>
       <c r="J8" s="2">
@@ -2403,29 +2625,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="20">
+      <c r="A9" s="51"/>
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="20">
+      <c r="C9" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="15">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="35">
+      <c r="F9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29">
         <v>6</v>
       </c>
-      <c r="H9" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="23">
+      <c r="H9" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="18">
         <v>0.25</v>
       </c>
       <c r="J9" s="2">
@@ -2434,31 +2656,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="46">
+      <c r="A10" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44">
         <v>5</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="C10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="14">
         <v>7</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="35">
+      <c r="F10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="29">
         <v>7</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="23">
+      <c r="H10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="18">
         <v>0.25</v>
       </c>
       <c r="J10" s="2">
@@ -2467,54 +2689,54 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="62">
+      <c r="A11" s="48"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="40">
         <v>27</v>
       </c>
-      <c r="F11" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="35">
+      <c r="F11" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="29">
         <v>29</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="23">
+      <c r="H11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="18">
         <v>0.25</v>
       </c>
       <c r="J11" s="2">
         <f>IFERROR(VLOOKUP($G11,Evaluation!C:F,4,FALSE),0)*I11</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="19">
+      <c r="A12" s="48"/>
+      <c r="B12" s="14">
         <v>6</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="41">
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="35">
         <v>8</v>
       </c>
-      <c r="F12" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="35">
+      <c r="F12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="29">
         <v>8</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="23">
+      <c r="H12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="18">
         <v>0.5</v>
       </c>
       <c r="J12" s="2">
@@ -2523,29 +2745,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="20">
+      <c r="A13" s="50"/>
+      <c r="B13" s="15">
         <v>7</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="20">
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="15">
         <v>9</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="35">
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="29">
         <v>9</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="23">
+      <c r="H13" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="18">
         <v>0.25</v>
       </c>
       <c r="J13" s="2">
@@ -2554,31 +2776,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="46">
+      <c r="A14" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="44">
         <v>8</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="20">
+      <c r="C14" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="15">
         <v>10</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="35">
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="29">
         <v>10</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="23">
+      <c r="H14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="18">
         <v>0.5</v>
       </c>
       <c r="J14" s="2">
@@ -2587,23 +2809,23 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="19">
+      <c r="A15" s="48"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="14">
         <v>11</v>
       </c>
-      <c r="F15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="35">
+      <c r="F15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="29">
         <v>11</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="23">
+      <c r="H15" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="18">
         <v>0.5</v>
       </c>
       <c r="J15" s="2">
@@ -2612,29 +2834,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46">
+      <c r="A16" s="48"/>
+      <c r="B16" s="44">
         <v>9</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="46">
+      <c r="C16" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="44">
         <v>12</v>
       </c>
-      <c r="F16" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="35">
+      <c r="F16" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="29">
         <v>12</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I16" s="23">
+      <c r="H16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="18">
         <v>0.1</v>
       </c>
       <c r="J16" s="2">
@@ -2643,19 +2865,19 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="35">
+      <c r="A17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="29">
         <v>13</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="23">
+      <c r="H17" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="18">
         <v>0.1</v>
       </c>
       <c r="J17" s="2">
@@ -2664,23 +2886,23 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="19">
+      <c r="A18" s="48"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="14">
         <v>13</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="35">
+      <c r="F18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="29">
         <v>14</v>
       </c>
-      <c r="H18" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" s="23">
+      <c r="H18" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="18">
         <v>0.1</v>
       </c>
       <c r="J18" s="2">
@@ -2689,23 +2911,23 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="19">
+      <c r="A19" s="48"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="14">
         <v>14</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="35">
+      <c r="F19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="29">
         <v>15</v>
       </c>
-      <c r="H19" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="23">
+      <c r="H19" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="18">
         <v>0.2</v>
       </c>
       <c r="J19" s="2">
@@ -2714,29 +2936,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="43"/>
-      <c r="B20" s="20">
+      <c r="A20" s="50"/>
+      <c r="B20" s="15">
         <v>10</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="20">
+      <c r="C20" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="35">
+      <c r="D20" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="15">
+        <v>15</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="29">
         <v>16</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="23">
+      <c r="H20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="18">
         <v>1</v>
       </c>
       <c r="J20" s="2">
@@ -2745,31 +2967,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20">
+      <c r="A21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15">
         <v>11</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="C21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="15">
         <v>16</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="35">
+      <c r="F21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="29">
         <v>17</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I21" s="23">
+      <c r="H21" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="18">
         <v>0.5</v>
       </c>
       <c r="J21" s="2">
@@ -2778,29 +3000,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
-      <c r="B22" s="19">
+      <c r="A22" s="50"/>
+      <c r="B22" s="14">
         <v>12</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="19">
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="14">
         <v>17</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="35">
+      <c r="F22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="29">
         <v>18</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="23">
+      <c r="H22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="18">
         <v>1</v>
       </c>
       <c r="J22" s="2">
@@ -2809,31 +3031,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="46">
+      <c r="A23" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="44">
         <v>13</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="20">
+      <c r="C23" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="15">
         <v>18</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="35">
+      <c r="F23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="30">
         <v>19</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="I23" s="23">
+      <c r="H23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="18">
         <v>0.25</v>
       </c>
       <c r="J23" s="2">
@@ -2842,23 +3064,23 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="19">
+      <c r="A24" s="48"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="14">
         <v>19</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="35">
+      <c r="F24" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="29">
         <v>20</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="23">
+      <c r="H24" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="18">
         <v>0.25</v>
       </c>
       <c r="J24" s="2">
@@ -2867,29 +3089,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="46">
+      <c r="A25" s="48"/>
+      <c r="B25" s="44">
         <v>14</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="19">
+      <c r="C25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="14">
         <v>20</v>
       </c>
-      <c r="F25" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="35">
+      <c r="F25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="29">
         <v>21</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="23">
+      <c r="H25" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="18">
         <v>0.15</v>
       </c>
       <c r="J25" s="2">
@@ -2898,23 +3120,23 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="43"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="19">
+      <c r="A26" s="50"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="14">
         <v>21</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="35">
+      <c r="F26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="29">
         <v>22</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="23">
+      <c r="H26" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="18">
         <v>0.1</v>
       </c>
       <c r="J26" s="2">
@@ -2923,31 +3145,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="46">
+      <c r="A27" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="44">
         <v>15</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="20">
+      <c r="C27" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="15">
         <v>22</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="35">
+      <c r="F27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="29">
         <v>23</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="23">
+      <c r="H27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="18">
         <v>0.15</v>
       </c>
       <c r="J27" s="2">
@@ -2956,23 +3178,23 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="46">
+      <c r="A28" s="48"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44">
         <v>23</v>
       </c>
-      <c r="F28" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="35">
+      <c r="F28" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="29">
         <v>24</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I28" s="23">
+      <c r="H28" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="18">
         <v>0.1</v>
       </c>
       <c r="J28" s="2">
@@ -2981,19 +3203,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="35">
+      <c r="A29" s="48"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="29">
         <v>25</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" s="23">
+      <c r="H29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="18">
         <v>0.1</v>
       </c>
       <c r="J29" s="2">
@@ -3002,23 +3224,23 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="43"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="20">
+      <c r="A30" s="50"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="15">
         <v>24</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="35">
+      <c r="F30" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="29">
         <v>26</v>
       </c>
-      <c r="H30" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="23">
+      <c r="H30" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="18">
         <v>0.15</v>
       </c>
       <c r="J30" s="2">
@@ -3027,240 +3249,240 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="23"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="2">
         <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="23"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="2">
         <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="2">
         <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="2">
         <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="23"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="2">
         <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="23"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="2">
         <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="23"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="2">
         <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="23"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="2">
         <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="23"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="2">
         <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="23"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="2">
         <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="23"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="2">
         <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="23"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="2">
         <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="23"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="2">
         <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="23"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="2">
         <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="23"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="2">
         <f>IFERROR(VLOOKUP($G45,Evaluation!C:F,4,FALSE),0)*I45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="24"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="3">
         <f>IFERROR(VLOOKUP($G46,Evaluation!C:F,4,FALSE),0)*I46</f>
         <v>0</v>
@@ -3268,31 +3490,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3305,6 +3502,31 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3312,882 +3534,625 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>30</v>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="A2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="7">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="E2" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="25">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="11">
+      <c r="A3" s="48"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="10">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="32">
+      <c r="E3" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="9">
+      <c r="A4" s="48"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="8">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="32">
+      <c r="E4" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="9"/>
+    <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="48"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="32"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2" t="str">
+      <c r="A6" s="48"/>
+      <c r="B6" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="32"/>
+        <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="32"/>
+        <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="32"/>
+        <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="8">
+        <v>17</v>
+      </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="32"/>
+        <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="8">
+        <v>18</v>
+      </c>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3" t="str">
+        <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="8">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="33"/>
+        <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
-      <c r="B12" s="52" t="s">
-        <v>1</v>
-      </c>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="str">
         <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="31">
-        <v>0.75</v>
+        <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="9">
-        <v>5</v>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="62">
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0.75</v>
+        <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="64">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="9">
-        <v>6</v>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="62">
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="32">
+        <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3" t="str">
+        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v/>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="48"/>
+      <c r="B16" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="9">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="32">
+      <c r="D16" s="1" t="str">
+        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="9">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="9">
-        <v>19</v>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="8">
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="32">
+        <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="9">
-        <v>20</v>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="8">
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="32">
+        <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="8">
+        <v>15</v>
+      </c>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="32"/>
+        <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="8">
+        <v>16</v>
+      </c>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="32"/>
+        <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="33"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56"/>
-      <c r="B22" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
+      <c r="A22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="31">
-        <v>0</v>
+        <v>LoC für einen Endpunkt</v>
+      </c>
+      <c r="E22" s="56">
+        <v>45</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="9">
-        <v>2</v>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="8">
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="str">
+        <v>Methodenaufrufe für einen Endpunkt</v>
+      </c>
+      <c r="E23" s="57">
+        <v>13</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0.5</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E24" s="58"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="9">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="str">
+      <c r="A25" s="48"/>
+      <c r="B25" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="str">
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0.5</v>
+        <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
+      </c>
+      <c r="E25" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="9">
-        <v>16</v>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="8">
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0.33</v>
+        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="26">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="8">
+        <v>9</v>
+      </c>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="32"/>
+        <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="62">
+        <v>29</v>
+      </c>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="53"/>
+        <v>Messung Startzeit</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="2" t="str">
+      <c r="D29" s="3" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="2" t="str">
+      <c r="A30" s="48"/>
+      <c r="B30" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="7">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="3" t="str">
+        <v>Länge vom Support in Monaten pro Major Release</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="8">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="33"/>
+        <v>Kommerzieller Support vorhanden (j/n)</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>26</v>
-      </c>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="8">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="str">
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>LoC für einen Endpunkt</v>
-      </c>
-      <c r="E32" s="14">
-        <v>45</v>
-      </c>
-      <c r="F32" s="31">
-        <v>0.25</v>
+        <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="9">
-        <v>13</v>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="8">
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Methodenaufrufe für einen Endpunkt</v>
-      </c>
-      <c r="E33" s="15">
-        <v>13</v>
-      </c>
-      <c r="F33" s="32">
-        <v>0.25</v>
+        <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="8">
+        <v>25</v>
+      </c>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="32"/>
+        <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="8">
+        <v>26</v>
+      </c>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="53"/>
+        <v>Github Repository : _x000D_Star + Watch + Fork</v>
+      </c>
+      <c r="E35" s="57">
+        <v>6850</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="32"/>
-    </row>
-    <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="33"/>
-    </row>
-    <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="56"/>
-      <c r="B42" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="8">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="9">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="56"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="9">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Messung Heap Size unter Last: Kleiner 100MB</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="56"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="56"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="56"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="32"/>
-    </row>
-    <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="32"/>
-    </row>
-    <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="56"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="33"/>
-    </row>
-    <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
-      <c r="B52" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="8">
-        <v>21</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Länge vom Support in Monaten pro Major Release</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="9">
-        <v>22</v>
-      </c>
-      <c r="D53" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Kommerzieller Support vorhanden (j/n)</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F53" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="9">
-        <v>23</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F54" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="9">
-        <v>24</v>
-      </c>
-      <c r="D55" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Firmen über 1000 MA</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="9">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Firmen über 100 MA</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="9">
-        <v>26</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Github - Star + Watch + Fork</v>
-      </c>
-      <c r="E57" s="15">
-        <v>6850</v>
-      </c>
-      <c r="F57" s="32">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="32"/>
-    </row>
-    <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="32"/>
-    </row>
-    <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="32"/>
-    </row>
-    <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="33"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="A32:A61"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4198,8 +4163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4208,28 +4173,28 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>36</v>
+      <c r="A6" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
         <f>SUM('QUT-GQM'!I2:I9)</f>
         <v>3.25</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="21">
         <f>SUM('QUT-GQM'!J2:J9)</f>
         <v>1.25</v>
       </c>
@@ -4240,30 +4205,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="26">
+        <v>9</v>
+      </c>
+      <c r="B8" s="21">
         <f>SUM('QUT-GQM'!I10:I13)</f>
         <v>1.25</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="21">
         <f>SUM('QUT-GQM'!J10:J13)</f>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="26">
+        <v>12</v>
+      </c>
+      <c r="B9" s="21">
         <f>SUM('QUT-GQM'!I14:I20)</f>
         <v>2.5</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="21">
         <f>SUM('QUT-GQM'!J14:J20)</f>
         <v>1.4550000000000003</v>
       </c>
@@ -4274,13 +4239,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="26">
+        <v>16</v>
+      </c>
+      <c r="B10" s="21">
         <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="21">
         <f>SUM('QUT-GQM'!J21:J22)</f>
         <v>0.5</v>
       </c>
@@ -4291,13 +4256,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="26">
+        <v>19</v>
+      </c>
+      <c r="B11" s="21">
         <f>SUM('QUT-GQM'!I23:I26)</f>
         <v>0.75</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="21">
         <f>SUM('QUT-GQM'!J23:J26)</f>
         <v>0.25</v>
       </c>
@@ -4308,13 +4273,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="26">
+        <v>72</v>
+      </c>
+      <c r="B12" s="21">
         <f>SUM('QUT-GQM'!I27:I30)</f>
         <v>0.5</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="21">
         <f>SUM('QUT-GQM'!J27:J30)</f>
         <v>3.7499999999999999E-2</v>
       </c>

--- a/Sonstiges/MFEM-Beispiel-GoKit.xlsx
+++ b/Sonstiges/MFEM-Beispiel-GoKit.xlsx
@@ -9,16 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
     <sheet name="Evaluation" sheetId="1" r:id="rId2"/>
     <sheet name="Fitness" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -433,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,6 +462,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,7 +477,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -740,50 +743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -813,15 +772,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -835,14 +785,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,7 +833,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -932,8 +881,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -941,54 +918,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -998,13 +951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1061,7 +1007,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1184,11 +1129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="744004208"/>
-        <c:axId val="744188528"/>
+        <c:axId val="1277117728"/>
+        <c:axId val="1277119088"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="744004208"/>
+        <c:axId val="1277117728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1176,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744188528"/>
+        <c:crossAx val="1277119088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +1184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="744188528"/>
+        <c:axId val="1277119088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1291,7 +1236,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="744004208"/>
+        <c:crossAx val="1277117728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2042,72 +1987,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="QUT-GQM"/>
-      <sheetName val="Evaluation"/>
-      <sheetName val="Fitness"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Funktionalität</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Performance</v>
-          </cell>
-          <cell r="D8">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Benutzbarkeit</v>
-          </cell>
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Sicherheit</v>
-          </cell>
-          <cell r="D10">
-            <v>0.91666666666666663</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Wartbarkeit</v>
-          </cell>
-          <cell r="D11">
-            <v>0.91666666666666663</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Zukunftssicherheit</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
@@ -2374,19 +2253,19 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="36" style="32" customWidth="1"/>
-    <col min="4" max="4" width="8" style="32" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="32" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="16" customWidth="1"/>
-    <col min="8" max="8" width="31" style="32" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="36" style="31" customWidth="1"/>
+    <col min="4" max="4" width="8" style="31" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="15" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="31" style="31" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
@@ -2395,60 +2274,60 @@
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>1</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0.5</v>
       </c>
       <c r="J2" s="1">
@@ -2457,29 +2336,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="44">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>2</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>0.25</v>
       </c>
       <c r="J3" s="2">
@@ -2488,23 +2367,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="51"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="15">
+      <c r="A4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>0.25</v>
       </c>
       <c r="J4" s="2">
@@ -2513,29 +2392,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51"/>
-      <c r="B5" s="44">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>4</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>0.75</v>
       </c>
       <c r="J5" s="2">
@@ -2544,23 +2423,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="14">
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="13">
         <v>5</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>5</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>0.25</v>
       </c>
       <c r="J6" s="2">
@@ -2569,29 +2448,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="44">
+      <c r="A7" s="54"/>
+      <c r="B7" s="52">
         <v>16</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>25</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>27</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.5</v>
       </c>
       <c r="J7" s="2">
@@ -2600,23 +2479,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="14">
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="13">
         <v>26</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>28</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.5</v>
       </c>
       <c r="J8" s="2">
@@ -2625,29 +2504,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="51"/>
-      <c r="B9" s="15">
+      <c r="A9" s="54"/>
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>6</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>6</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>0.25</v>
       </c>
       <c r="J9" s="2">
@@ -2656,31 +2535,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>7</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>0.25</v>
       </c>
       <c r="J10" s="2">
@@ -2689,23 +2568,23 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="40">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="39">
         <v>27</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G11" s="28">
         <v>29</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>0.25</v>
       </c>
       <c r="J11" s="2">
@@ -2714,29 +2593,29 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="14">
+      <c r="A12" s="55"/>
+      <c r="B12" s="13">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>8</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <v>8</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>0.5</v>
       </c>
       <c r="J12" s="2">
@@ -2745,29 +2624,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="15">
+      <c r="A13" s="49"/>
+      <c r="B13" s="14">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>9</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="28">
         <v>9</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0.25</v>
       </c>
       <c r="J13" s="2">
@@ -2776,31 +2655,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="52">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>10</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <v>10</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>0.5</v>
       </c>
       <c r="J14" s="2">
@@ -2809,23 +2688,23 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="14">
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="13">
         <v>11</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G15" s="28">
         <v>11</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>0.5</v>
       </c>
       <c r="J15" s="2">
@@ -2834,29 +2713,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="44">
+      <c r="A16" s="55"/>
+      <c r="B16" s="52">
         <v>9</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="52">
         <v>12</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="28">
         <v>12</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>0.1</v>
       </c>
       <c r="J16" s="2">
@@ -2865,19 +2744,19 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="29">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="28">
         <v>13</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>0.1</v>
       </c>
       <c r="J17" s="2">
@@ -2886,23 +2765,23 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="14">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="13">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="28">
         <v>14</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>0.1</v>
       </c>
       <c r="J18" s="2">
@@ -2911,23 +2790,23 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="14">
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="13">
         <v>14</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="28">
         <v>15</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>0.2</v>
       </c>
       <c r="J19" s="2">
@@ -2936,29 +2815,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
-      <c r="B20" s="15">
+      <c r="A20" s="49"/>
+      <c r="B20" s="14">
         <v>10</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>15</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="28">
         <v>16</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>1</v>
       </c>
       <c r="J20" s="2">
@@ -2967,31 +2846,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="D21" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>16</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="28">
         <v>17</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>0.5</v>
       </c>
       <c r="J21" s="2">
@@ -3000,29 +2879,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
-      <c r="B22" s="14">
+      <c r="A22" s="49"/>
+      <c r="B22" s="13">
         <v>12</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>17</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="28">
         <v>18</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>1</v>
       </c>
       <c r="J22" s="2">
@@ -3031,31 +2910,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="52">
         <v>13</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>18</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>19</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>0.25</v>
       </c>
       <c r="J23" s="2">
@@ -3064,23 +2943,23 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="14">
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="13">
         <v>19</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="28">
         <v>20</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>0.25</v>
       </c>
       <c r="J24" s="2">
@@ -3089,29 +2968,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="44">
+      <c r="A25" s="55"/>
+      <c r="B25" s="52">
         <v>14</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>20</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="28">
         <v>21</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <v>0.15</v>
       </c>
       <c r="J25" s="2">
@@ -3120,23 +2999,23 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="14">
+      <c r="A26" s="49"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="13">
         <v>21</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="28">
         <v>22</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <v>0.1</v>
       </c>
       <c r="J26" s="2">
@@ -3145,31 +3024,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="52">
         <v>15</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="14">
         <v>22</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="28">
         <v>23</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>0.15</v>
       </c>
       <c r="J27" s="2">
@@ -3178,23 +3057,23 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="52">
         <v>23</v>
       </c>
-      <c r="F28" s="41" t="s">
+      <c r="F28" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <v>24</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>0.1</v>
       </c>
       <c r="J28" s="2">
@@ -3203,19 +3082,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="29">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="28">
         <v>25</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>0.1</v>
       </c>
       <c r="J29" s="2">
@@ -3224,23 +3103,23 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="15">
+      <c r="A30" s="49"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="14">
         <v>24</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="28">
         <v>26</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="17">
         <v>0.15</v>
       </c>
       <c r="J30" s="2">
@@ -3249,240 +3128,240 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="18"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="2">
         <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="53"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="18"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="2">
         <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="18"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="2">
         <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="18"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="2">
         <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="18"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="2">
         <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="18"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="2">
         <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="53"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="18"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="2">
         <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="53"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="18"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="2">
         <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="53"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="18"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="2">
         <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="53"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="18"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="2">
         <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="53"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="18"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="2">
         <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="18"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="2">
         <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="18"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="2">
         <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="18"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="2">
         <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="18"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="2">
         <f>IFERROR(VLOOKUP($G45,Evaluation!C:F,4,FALSE),0)*I45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="19"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="18"/>
       <c r="J46" s="3">
         <f>IFERROR(VLOOKUP($G46,Evaluation!C:F,4,FALSE),0)*I46</f>
         <v>0</v>
@@ -3490,6 +3369,31 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3502,31 +3406,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3534,25 +3413,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="78.1640625" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -3561,587 +3443,587 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="10">
+      <c r="A3" s="55"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="9">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="8">
+      <c r="A4" s="55"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="7">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="26"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="7">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="7">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="8">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="7">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="8">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="7">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="8">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="7">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="42">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="64">
+      <c r="F13" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="62">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="42">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="64">
+      <c r="F14" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="47" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="8">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="8">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="8">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="7">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="8">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="7">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>0.33</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>LoC für einen Endpunkt</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="44">
         <v>45</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="8">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="7">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Methodenaufrufe für einen Endpunkt</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="45">
         <v>13</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>0.25</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="3" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E25" s="56" t="s">
+      <c r="E25" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="8">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="7">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="8">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="7">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="62">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="42">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Startzeit</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E28" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="F28" s="64">
+      <c r="F28" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="3" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="27"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="47" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>21</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="8">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="7">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="8">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="7">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="str">
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="8">
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="7">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="8">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="7">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="8">
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="7">
         <v>26</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Github Repository : _x000D_Star + Watch + Fork</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="45">
         <v>6850</v>
       </c>
-      <c r="F35" s="26">
+      <c r="F35" s="25">
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="27"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4154,8 +4036,9 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A2:A21"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4163,7 +4046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -4173,7 +4056,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B6" t="s">
@@ -4190,11 +4073,11 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <f>SUM('QUT-GQM'!I2:I9)</f>
         <v>3.25</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <f>SUM('QUT-GQM'!J2:J9)</f>
         <v>1.25</v>
       </c>
@@ -4207,11 +4090,11 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <f>SUM('QUT-GQM'!I10:I13)</f>
         <v>1.25</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <f>SUM('QUT-GQM'!J10:J13)</f>
         <v>1.25</v>
       </c>
@@ -4224,11 +4107,11 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <f>SUM('QUT-GQM'!I14:I20)</f>
         <v>2.5</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <f>SUM('QUT-GQM'!J14:J20)</f>
         <v>1.4550000000000003</v>
       </c>
@@ -4241,11 +4124,11 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <f>SUM('QUT-GQM'!J21:J22)</f>
         <v>0.5</v>
       </c>
@@ -4258,11 +4141,11 @@
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <f>SUM('QUT-GQM'!I23:I26)</f>
         <v>0.75</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <f>SUM('QUT-GQM'!J23:J26)</f>
         <v>0.25</v>
       </c>
@@ -4275,11 +4158,11 @@
       <c r="A12" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <f>SUM('QUT-GQM'!I27:I30)</f>
         <v>0.5</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <f>SUM('QUT-GQM'!J27:J30)</f>
         <v>3.7499999999999999E-2</v>
       </c>

--- a/Sonstiges/MFEM-Beispiel-GoKit.xlsx
+++ b/Sonstiges/MFEM-Beispiel-GoKit.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
     <sheet name="Evaluation" sheetId="1" r:id="rId2"/>
     <sheet name="Fitness" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -269,9 +272,6 @@
     <t>schwer umsetzbar</t>
   </si>
   <si>
-    <t>gut</t>
-  </si>
-  <si>
     <t>Einfach</t>
   </si>
   <si>
@@ -424,6 +424,9 @@
   </si>
   <si>
     <t>18,4ms</t>
+  </si>
+  <si>
+    <t>schlecht</t>
   </si>
 </sst>
 </file>
@@ -907,34 +910,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1007,6 +1010,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1106,7 +1110,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.582</c:v>
+                  <c:v>0.542</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.333333333333333</c:v>
@@ -1129,11 +1133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1277117728"/>
-        <c:axId val="1277119088"/>
+        <c:axId val="1384945984"/>
+        <c:axId val="1384948032"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1277117728"/>
+        <c:axId val="1384945984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,7 +1180,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1277119088"/>
+        <c:crossAx val="1384948032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1184,7 +1188,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1277119088"/>
+        <c:axId val="1384948032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1236,7 +1240,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1277117728"/>
+        <c:crossAx val="1384945984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1987,6 +1991,72 @@
 </c:userShapes>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="QUT-GQM"/>
+      <sheetName val="Evaluation"/>
+      <sheetName val="Fitness"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Funktionalität</v>
+          </cell>
+          <cell r="D7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Performance</v>
+          </cell>
+          <cell r="D8">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Benutzbarkeit</v>
+          </cell>
+          <cell r="D9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Sicherheit</v>
+          </cell>
+          <cell r="D10">
+            <v>0.91666666666666663</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Wartbarkeit</v>
+          </cell>
+          <cell r="D11">
+            <v>0.88833333333333331</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Zukunftssicherheit</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
@@ -2252,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>29</v>
@@ -2296,14 +2366,14 @@
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13">
@@ -2313,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -2325,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I2" s="16">
         <v>0.5</v>
@@ -2336,15 +2406,15 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52">
+      <c r="A3" s="55"/>
+      <c r="B3" s="51">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>83</v>
+      <c r="D3" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
@@ -2356,7 +2426,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="16">
         <v>0.25</v>
@@ -2367,10 +2437,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="14">
         <v>3</v>
       </c>
@@ -2381,7 +2451,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="17">
         <v>0.25</v>
@@ -2392,15 +2462,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="52">
+      <c r="A5" s="57"/>
+      <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="48" t="s">
         <v>87</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>88</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
@@ -2412,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="17">
         <v>0.75</v>
@@ -2423,10 +2493,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="13">
         <v>5</v>
       </c>
@@ -2437,7 +2507,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="17">
         <v>0.25</v>
@@ -2448,27 +2518,27 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="52">
+      <c r="A7" s="57"/>
+      <c r="B7" s="51">
         <v>16</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>88</v>
+      <c r="C7" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="E7" s="13">
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G7" s="28">
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="17">
         <v>0.5</v>
@@ -2479,21 +2549,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="13">
         <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" s="28">
         <v>28</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="17">
         <v>0.5</v>
@@ -2504,15 +2574,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="14">
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>96</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="E9" s="14">
         <v>6</v>
@@ -2524,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I9" s="17">
         <v>0.25</v>
@@ -2535,17 +2605,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="51">
         <v>5</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="50" t="s">
-        <v>83</v>
+      <c r="D10" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="E10" s="13">
         <v>7</v>
@@ -2568,21 +2638,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="39">
         <v>27</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="28">
         <v>29</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I11" s="17">
         <v>0.25</v>
@@ -2593,7 +2663,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="13">
         <v>6</v>
       </c>
@@ -2601,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="34">
         <v>8</v>
@@ -2624,7 +2694,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="14">
         <v>7</v>
       </c>
@@ -2632,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="14">
         <v>9</v>
@@ -2644,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I13" s="17">
         <v>0.25</v>
@@ -2655,17 +2725,17 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="51">
         <v>8</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>88</v>
+      <c r="D14" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="E14" s="14">
         <v>10</v>
@@ -2677,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="17">
         <v>0.5</v>
@@ -2688,10 +2758,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="13">
         <v>11</v>
       </c>
@@ -2702,7 +2772,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="17">
         <v>0.5</v>
@@ -2713,27 +2783,27 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="52">
+      <c r="A16" s="54"/>
+      <c r="B16" s="51">
         <v>9</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="52">
+      <c r="D16" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="51">
         <v>12</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="48" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="28">
         <v>12</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I16" s="17">
         <v>0.1</v>
@@ -2744,17 +2814,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="28">
         <v>13</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="17">
         <v>0.1</v>
@@ -2765,10 +2835,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="13">
         <v>13</v>
       </c>
@@ -2779,7 +2849,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="17">
         <v>0.1</v>
@@ -2790,10 +2860,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="13">
         <v>14</v>
       </c>
@@ -2804,18 +2874,18 @@
         <v>15</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I19" s="17">
         <v>0.2</v>
       </c>
       <c r="J19" s="2">
         <f>IFERROR(VLOOKUP($G19,Evaluation!C:F,4,FALSE),0)*I19</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="14">
         <v>10</v>
       </c>
@@ -2823,7 +2893,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="14">
         <v>15</v>
@@ -2835,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" s="17">
         <v>1</v>
@@ -2846,7 +2916,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="53" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="14">
@@ -2856,7 +2926,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21" s="14">
         <v>16</v>
@@ -2868,7 +2938,7 @@
         <v>17</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" s="17">
         <v>0.5</v>
@@ -2879,7 +2949,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="49"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="13">
         <v>12</v>
       </c>
@@ -2887,7 +2957,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="13">
         <v>17</v>
@@ -2899,7 +2969,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" s="17">
         <v>1</v>
@@ -2910,17 +2980,17 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="51">
         <v>13</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>83</v>
+      <c r="D23" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="E23" s="14">
         <v>18</v>
@@ -2932,7 +3002,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" s="17">
         <v>0.25</v>
@@ -2943,10 +3013,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="13">
         <v>19</v>
       </c>
@@ -2957,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="17">
         <v>0.25</v>
@@ -2968,15 +3038,15 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52">
+      <c r="A25" s="54"/>
+      <c r="B25" s="51">
         <v>14</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>97</v>
+      <c r="D25" s="48" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="13">
         <v>20</v>
@@ -2999,10 +3069,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="13">
         <v>21</v>
       </c>
@@ -3024,17 +3094,17 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="51">
         <v>15</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>83</v>
+      <c r="D27" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="E27" s="14">
         <v>22</v>
@@ -3057,21 +3127,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="52">
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51">
         <v>23</v>
       </c>
-      <c r="F28" s="50" t="s">
-        <v>113</v>
+      <c r="F28" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="G28" s="28">
         <v>24</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I28" s="17">
         <v>0.1</v>
@@ -3082,17 +3152,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="51"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="28">
         <v>25</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I29" s="17">
         <v>0.1</v>
@@ -3103,10 +3173,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="14">
         <v>24</v>
       </c>
@@ -3117,7 +3187,7 @@
         <v>26</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I30" s="17">
         <v>0.15</v>
@@ -3369,31 +3439,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3406,6 +3451,31 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3418,8 +3488,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3435,7 +3505,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -3455,7 +3525,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
@@ -3472,7 +3542,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="61"/>
       <c r="C3" s="9">
         <v>11</v>
@@ -3489,7 +3559,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="61"/>
       <c r="C4" s="7">
         <v>14</v>
@@ -3506,7 +3576,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="62"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="str">
@@ -3517,9 +3587,9 @@
       <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3536,8 +3606,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3553,8 +3623,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3570,8 +3640,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="7">
         <v>17</v>
       </c>
@@ -3587,8 +3657,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="7">
         <v>18</v>
       </c>
@@ -3604,8 +3674,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="7">
         <v>19</v>
       </c>
@@ -3621,8 +3691,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="7">
         <v>20</v>
       </c>
@@ -3638,8 +3708,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="42">
         <v>27</v>
       </c>
@@ -3655,8 +3725,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="42">
         <v>28</v>
       </c>
@@ -3672,7 +3742,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="59"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
@@ -3683,7 +3753,7 @@
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="58" t="s">
         <v>0</v>
       </c>
@@ -3702,8 +3772,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -3719,8 +3789,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -3736,8 +3806,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -3746,15 +3816,15 @@
         <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="F19" s="25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
@@ -3763,7 +3833,7 @@
         <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="25">
         <v>0.33</v>
@@ -3785,7 +3855,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3802,8 +3872,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="7">
         <v>13</v>
       </c>
@@ -3819,7 +3889,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="59"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="str">
@@ -3830,7 +3900,7 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="58" t="s">
         <v>9</v>
       </c>
@@ -3849,8 +3919,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="7">
         <v>8</v>
       </c>
@@ -3866,8 +3936,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3883,8 +3953,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="42">
         <v>29</v>
       </c>
@@ -3893,14 +3963,14 @@
         <v>Messung Startzeit</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="59"/>
       <c r="C29" s="8"/>
       <c r="D29" s="3" t="str">
@@ -3911,7 +3981,7 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="58" t="s">
         <v>25</v>
       </c>
@@ -3930,8 +4000,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="7">
         <v>22</v>
       </c>
@@ -3947,8 +4017,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="7">
         <v>23</v>
       </c>
@@ -3964,8 +4034,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="7">
         <v>24</v>
       </c>
@@ -3974,15 +4044,15 @@
         <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
       </c>
       <c r="E33" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="7">
         <v>25</v>
       </c>
@@ -3991,15 +4061,15 @@
         <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
       </c>
       <c r="E34" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F34" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="7">
         <v>26</v>
       </c>
@@ -4046,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4113,11 +4183,11 @@
       </c>
       <c r="C9" s="20">
         <f>SUM('QUT-GQM'!J14:J20)</f>
-        <v>1.4550000000000003</v>
+        <v>1.3550000000000002</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.58200000000000007</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">

--- a/Sonstiges/MFEM-Beispiel-GoKit.xlsx
+++ b/Sonstiges/MFEM-Beispiel-GoKit.xlsx
@@ -9,16 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
     <sheet name="Evaluation" sheetId="1" r:id="rId2"/>
     <sheet name="Fitness" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -146,9 +143,6 @@
     <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
   </si>
   <si>
-    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
-  </si>
-  <si>
     <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
   </si>
   <si>
-    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
-  </si>
-  <si>
     <t>Ist der Service leichtgewichtig?</t>
   </si>
   <si>
@@ -170,9 +161,6 @@
     <t>Werden Dependencies automatisch geladen?</t>
   </si>
   <si>
-    <t>Kann eine Endpunkt einfach erstellt werden?</t>
-  </si>
-  <si>
     <t>Lässt sich das Framework einfach und schnell installieren?</t>
   </si>
   <si>
@@ -225,9 +213,6 @@
   </si>
   <si>
     <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
-  </si>
-  <si>
-    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
   </si>
   <si>
     <t>Länge vom Support in Monaten pro Major Release</t>
@@ -313,9 +298,6 @@
     <t>Unterstützung Eureka Service Discovery</t>
   </si>
   <si>
-    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie ein Heartbeat senden?</t>
-  </si>
-  <si>
     <t>Discovery An- und Abmeldung:
 Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
@@ -347,10 +329,6 @@
 Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
   <si>
-    <t>Dependencieverwaltung:
-Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
-  </si>
-  <si>
     <t>LoC für einen Endpunkt</t>
   </si>
   <si>
@@ -427,6 +405,25 @@
   </si>
   <si>
     <t>schlecht</t>
+  </si>
+  <si>
+    <t>Fügt das Framework HATEOAS Links in die Antwort ein?</t>
+  </si>
+  <si>
+    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie einen Heartbeat senden?</t>
+  </si>
+  <si>
+    <t>Wird vom Framework das Circuit Breaker Pattern unterstützt</t>
+  </si>
+  <si>
+    <t>Durchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
+  </si>
+  <si>
+    <t>Kann ein Endpunkt einfach erstellt werden?</t>
+  </si>
+  <si>
+    <t>Dependencyverwaltung:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
 </sst>
 </file>
@@ -866,12 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -909,35 +900,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1133,11 +1130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1384945984"/>
-        <c:axId val="1384948032"/>
+        <c:axId val="1167083616"/>
+        <c:axId val="1167151104"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1384945984"/>
+        <c:axId val="1167083616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1177,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1384948032"/>
+        <c:crossAx val="1167151104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1188,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1384948032"/>
+        <c:axId val="1167151104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1240,7 +1237,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1384945984"/>
+        <c:crossAx val="1167083616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1991,72 +1988,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="QUT-GQM"/>
-      <sheetName val="Evaluation"/>
-      <sheetName val="Fitness"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Funktionalität</v>
-          </cell>
-          <cell r="D7">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Performance</v>
-          </cell>
-          <cell r="D8">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Benutzbarkeit</v>
-          </cell>
-          <cell r="D9">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Sicherheit</v>
-          </cell>
-          <cell r="D10">
-            <v>0.91666666666666663</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Wartbarkeit</v>
-          </cell>
-          <cell r="D11">
-            <v>0.88833333333333331</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Zukunftssicherheit</v>
-          </cell>
-          <cell r="D12">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
@@ -2322,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2350,8 +2281,8 @@
       <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>80</v>
+      <c r="D1" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>29</v>
@@ -2366,36 +2297,36 @@
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>82</v>
+      <c r="D2" s="34" t="s">
+        <v>78</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="46" t="s">
         <v>36</v>
       </c>
       <c r="G2" s="28">
         <v>1</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>83</v>
+      <c r="H2" s="46" t="s">
+        <v>79</v>
       </c>
       <c r="I2" s="16">
         <v>0.5</v>
@@ -2406,27 +2337,27 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="51">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>82</v>
+      <c r="D3" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="E3" s="13">
         <v>2</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>37</v>
+      <c r="F3" s="46" t="s">
+        <v>118</v>
       </c>
       <c r="G3" s="28">
         <v>2</v>
       </c>
-      <c r="H3" s="33" t="s">
-        <v>84</v>
+      <c r="H3" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="I3" s="16">
         <v>0.25</v>
@@ -2437,21 +2368,21 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="14">
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="28">
         <v>3</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I4" s="17">
         <v>0.25</v>
@@ -2462,27 +2393,27 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="51">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>87</v>
+      <c r="C5" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="28">
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I5" s="17">
         <v>0.75</v>
@@ -2493,21 +2424,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="13">
         <v>5</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="28">
         <v>5</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I6" s="17">
         <v>0.25</v>
@@ -2518,27 +2449,27 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="51">
+      <c r="A7" s="54"/>
+      <c r="B7" s="52">
         <v>16</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>87</v>
+      <c r="C7" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="E7" s="13">
         <v>25</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="G7" s="28">
         <v>27</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I7" s="17">
         <v>0.5</v>
@@ -2549,21 +2480,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="13">
         <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G8" s="28">
         <v>28</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I8" s="17">
         <v>0.5</v>
@@ -2574,27 +2505,27 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="14">
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="14">
         <v>6</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="G9" s="28">
         <v>6</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I9" s="17">
         <v>0.25</v>
@@ -2605,29 +2536,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>82</v>
+      <c r="C10" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="E10" s="13">
         <v>7</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" s="28">
         <v>7</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I10" s="17">
         <v>0.25</v>
@@ -2638,21 +2569,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="39">
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="37">
         <v>27</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>98</v>
+      <c r="F11" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="G11" s="28">
         <v>29</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I11" s="17">
         <v>0.25</v>
@@ -2663,27 +2594,27 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="13">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="D12" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="47">
         <v>8</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>63</v>
+      <c r="F12" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="G12" s="28">
         <v>8</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="I12" s="17">
         <v>0.5</v>
@@ -2694,27 +2625,27 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="14">
         <v>7</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>96</v>
+      <c r="D13" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="14">
         <v>9</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G13" s="28">
         <v>9</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I13" s="17">
         <v>0.25</v>
@@ -2725,29 +2656,29 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="52">
         <v>8</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>87</v>
+      <c r="D14" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="E14" s="14">
         <v>10</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="28">
         <v>10</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I14" s="17">
         <v>0.5</v>
@@ -2758,21 +2689,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="13">
         <v>11</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G15" s="28">
         <v>11</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="I15" s="17">
         <v>0.5</v>
@@ -2783,27 +2714,27 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="51">
+      <c r="A16" s="55"/>
+      <c r="B16" s="52">
         <v>9</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="51">
+      <c r="D16" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="52">
         <v>12</v>
       </c>
-      <c r="F16" s="48" t="s">
-        <v>45</v>
+      <c r="F16" s="50" t="s">
+        <v>122</v>
       </c>
       <c r="G16" s="28">
         <v>12</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I16" s="17">
         <v>0.1</v>
@@ -2814,17 +2745,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="56"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="28">
         <v>13</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I17" s="17">
         <v>0.1</v>
@@ -2835,21 +2766,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="56"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="13">
         <v>13</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18" s="28">
         <v>14</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I18" s="17">
         <v>0.1</v>
@@ -2860,21 +2791,21 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="13">
         <v>14</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G19" s="28">
         <v>15</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I19" s="17">
         <v>0.2</v>
@@ -2885,27 +2816,27 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="14">
         <v>10</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>87</v>
+      <c r="D20" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="E20" s="14">
         <v>15</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G20" s="28">
         <v>16</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I20" s="17">
         <v>1</v>
@@ -2916,7 +2847,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="48" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="14">
@@ -2925,20 +2856,20 @@
       <c r="C21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>82</v>
+      <c r="D21" s="35" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="14">
         <v>16</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" s="28">
         <v>17</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I21" s="17">
         <v>0.5</v>
@@ -2949,27 +2880,27 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="13">
         <v>12</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="36" t="s">
-        <v>87</v>
+      <c r="D22" s="34" t="s">
+        <v>83</v>
       </c>
       <c r="E22" s="13">
         <v>17</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G22" s="28">
         <v>18</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I22" s="17">
         <v>1</v>
@@ -2980,29 +2911,29 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="52">
         <v>13</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="48" t="s">
-        <v>82</v>
+      <c r="D23" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="E23" s="14">
         <v>18</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="29">
         <v>19</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I23" s="17">
         <v>0.25</v>
@@ -3013,21 +2944,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="13">
         <v>19</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G24" s="28">
         <v>20</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I24" s="17">
         <v>0.25</v>
@@ -3038,27 +2969,27 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="51">
+      <c r="A25" s="55"/>
+      <c r="B25" s="52">
         <v>14</v>
       </c>
-      <c r="C25" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="48" t="s">
-        <v>96</v>
+      <c r="C25" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="E25" s="13">
         <v>20</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G25" s="28">
         <v>21</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I25" s="17">
         <v>0.15</v>
@@ -3069,21 +3000,21 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="13">
         <v>21</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="28">
         <v>22</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I26" s="17">
         <v>0.1</v>
@@ -3094,29 +3025,29 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="51">
+      <c r="A27" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="52">
         <v>15</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="48" t="s">
-        <v>82</v>
+      <c r="D27" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="E27" s="14">
         <v>22</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G27" s="28">
         <v>23</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I27" s="17">
         <v>0.15</v>
@@ -3127,21 +3058,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="56"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="51">
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="52">
         <v>23</v>
       </c>
-      <c r="F28" s="48" t="s">
-        <v>112</v>
+      <c r="F28" s="50" t="s">
+        <v>106</v>
       </c>
       <c r="G28" s="28">
         <v>24</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I28" s="17">
         <v>0.1</v>
@@ -3152,17 +3083,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="56"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="49"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="28">
         <v>25</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I29" s="17">
         <v>0.1</v>
@@ -3173,21 +3104,21 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="14">
         <v>24</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G30" s="28">
         <v>26</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I30" s="17">
         <v>0.15</v>
@@ -3198,10 +3129,10 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="14"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="37"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="14"/>
       <c r="F31" s="12"/>
       <c r="G31" s="29"/>
@@ -3213,10 +3144,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="14"/>
       <c r="F32" s="12"/>
       <c r="G32" s="29"/>
@@ -3228,10 +3159,10 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
+      <c r="A33" s="38"/>
       <c r="B33" s="14"/>
       <c r="C33" s="12"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="35"/>
       <c r="E33" s="14"/>
       <c r="F33" s="12"/>
       <c r="G33" s="29"/>
@@ -3243,10 +3174,10 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="14"/>
       <c r="C34" s="12"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="14"/>
       <c r="F34" s="12"/>
       <c r="G34" s="29"/>
@@ -3258,10 +3189,10 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
+      <c r="A35" s="38"/>
       <c r="B35" s="14"/>
       <c r="C35" s="12"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="14"/>
       <c r="F35" s="12"/>
       <c r="G35" s="29"/>
@@ -3273,10 +3204,10 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="14"/>
       <c r="C36" s="12"/>
-      <c r="D36" s="37"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="14"/>
       <c r="F36" s="12"/>
       <c r="G36" s="29"/>
@@ -3288,10 +3219,10 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="14"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="37"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="14"/>
       <c r="F37" s="12"/>
       <c r="G37" s="29"/>
@@ -3303,10 +3234,10 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="14"/>
       <c r="F38" s="12"/>
       <c r="G38" s="29"/>
@@ -3318,10 +3249,10 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="14"/>
       <c r="C39" s="12"/>
-      <c r="D39" s="37"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="14"/>
       <c r="F39" s="12"/>
       <c r="G39" s="29"/>
@@ -3333,10 +3264,10 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="14"/>
       <c r="F40" s="12"/>
       <c r="G40" s="29"/>
@@ -3348,10 +3279,10 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="14"/>
       <c r="C41" s="12"/>
-      <c r="D41" s="37"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="14"/>
       <c r="F41" s="12"/>
       <c r="G41" s="29"/>
@@ -3363,10 +3294,10 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="14"/>
       <c r="C42" s="12"/>
-      <c r="D42" s="37"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="14"/>
       <c r="F42" s="12"/>
       <c r="G42" s="29"/>
@@ -3378,10 +3309,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="14"/>
       <c r="C43" s="12"/>
-      <c r="D43" s="37"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="14"/>
       <c r="F43" s="12"/>
       <c r="G43" s="29"/>
@@ -3393,10 +3324,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="14"/>
       <c r="C44" s="12"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="14"/>
       <c r="F44" s="12"/>
       <c r="G44" s="29"/>
@@ -3408,10 +3339,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="14"/>
       <c r="C45" s="12"/>
-      <c r="D45" s="37"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="14"/>
       <c r="F45" s="12"/>
       <c r="G45" s="29"/>
@@ -3423,10 +3354,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="36"/>
       <c r="E46" s="22"/>
       <c r="F46" s="23"/>
       <c r="G46" s="30"/>
@@ -3439,6 +3370,31 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3451,31 +3407,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3488,8 +3419,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3505,7 +3436,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
@@ -3525,7 +3456,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
@@ -3534,32 +3465,32 @@
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>73</v>
+      <c r="E2" s="42" t="s">
+        <v>69</v>
       </c>
       <c r="F2" s="24">
         <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="61"/>
       <c r="C3" s="9">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>74</v>
+        <v>Dependencyverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="F3" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="61"/>
       <c r="C4" s="7">
         <v>14</v>
@@ -3568,28 +3499,28 @@
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>75</v>
+      <c r="E4" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="F4" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="62"/>
       <c r="C5" s="7"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="45"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="58" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3598,16 +3529,16 @@
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>76</v>
+      <c r="E6" s="42" t="s">
+        <v>72</v>
       </c>
       <c r="F6" s="24">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3615,16 +3546,16 @@
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E7" s="45" t="s">
-        <v>76</v>
+      <c r="E7" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="F7" s="25">
         <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3632,16 +3563,16 @@
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>77</v>
+      <c r="E8" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="F8" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="7">
         <v>17</v>
       </c>
@@ -3649,16 +3580,16 @@
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>78</v>
+      <c r="E9" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="F9" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="7">
         <v>18</v>
       </c>
@@ -3666,16 +3597,16 @@
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>73</v>
+      <c r="E10" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="F10" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="7">
         <v>19</v>
       </c>
@@ -3683,16 +3614,16 @@
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E11" s="45" t="s">
-        <v>73</v>
+      <c r="E11" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="7">
         <v>20</v>
       </c>
@@ -3700,60 +3631,60 @@
         <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>73</v>
+      <c r="E12" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="F12" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="42">
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="40">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E13" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="43">
+      <c r="E13" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="42">
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="40">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="43">
+      <c r="E14" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="59"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E15" s="47"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="58" t="s">
         <v>0</v>
       </c>
@@ -3764,16 +3695,16 @@
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>78</v>
+      <c r="E16" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -3781,16 +3712,16 @@
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>76</v>
+      <c r="E17" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -3798,16 +3729,16 @@
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>76</v>
+      <c r="E18" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -3815,16 +3746,16 @@
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E19" s="45" t="s">
-        <v>123</v>
+      <c r="E19" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="F19" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
@@ -3832,8 +3763,8 @@
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
-      <c r="E20" s="45" t="s">
-        <v>79</v>
+      <c r="E20" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="F20" s="25">
         <v>0.33</v>
@@ -3847,7 +3778,7 @@
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="47"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,7 +3786,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="60" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3864,7 +3795,7 @@
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>LoC für einen Endpunkt</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="42">
         <v>45</v>
       </c>
       <c r="F22" s="24">
@@ -3872,8 +3803,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="7">
         <v>13</v>
       </c>
@@ -3881,7 +3812,7 @@
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Methodenaufrufe für einen Endpunkt</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="43">
         <v>13</v>
       </c>
       <c r="F23" s="25">
@@ -3889,18 +3820,18 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="59"/>
       <c r="C24" s="8"/>
       <c r="D24" s="3" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="45"/>
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="58" t="s">
         <v>9</v>
       </c>
@@ -3911,33 +3842,33 @@
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>68</v>
+      <c r="E25" s="42" t="s">
+        <v>64</v>
       </c>
       <c r="F25" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="7">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>67</v>
+        <v>Durchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="F26" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3945,43 +3876,43 @@
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
       </c>
-      <c r="E27" s="45" t="s">
-        <v>66</v>
+      <c r="E27" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="F27" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="42">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="40">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Startzeit</v>
       </c>
-      <c r="E28" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="43">
+      <c r="E28" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="59"/>
       <c r="C29" s="8"/>
       <c r="D29" s="3" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="47"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="58" t="s">
         <v>25</v>
       </c>
@@ -3992,16 +3923,16 @@
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
-      <c r="E30" s="44" t="s">
-        <v>69</v>
+      <c r="E30" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="F30" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="7">
         <v>22</v>
       </c>
@@ -4009,16 +3940,16 @@
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E31" s="45" t="s">
-        <v>70</v>
+      <c r="E31" s="43" t="s">
+        <v>66</v>
       </c>
       <c r="F31" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="7">
         <v>23</v>
       </c>
@@ -4026,16 +3957,16 @@
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E32" s="45" t="s">
-        <v>71</v>
+      <c r="E32" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="F32" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="7">
         <v>24</v>
       </c>
@@ -4043,16 +3974,16 @@
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
       </c>
-      <c r="E33" s="45" t="s">
-        <v>120</v>
+      <c r="E33" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="F33" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="7">
         <v>25</v>
       </c>
@@ -4060,16 +3991,16 @@
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
       </c>
-      <c r="E34" s="45" t="s">
-        <v>121</v>
+      <c r="E34" s="43" t="s">
+        <v>115</v>
       </c>
       <c r="F34" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="7">
         <v>26</v>
       </c>
@@ -4077,7 +4008,7 @@
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Github Repository : _x000D_Star + Watch + Fork</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="43">
         <v>6850</v>
       </c>
       <c r="F35" s="25">
@@ -4092,7 +4023,7 @@
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="26"/>
     </row>
   </sheetData>
@@ -4116,7 +4047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
@@ -4226,7 +4157,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B12" s="20">
         <f>SUM('QUT-GQM'!I27:I30)</f>
